--- a/outputs-HGR-r202/test-f__Enterococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Enterococcaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="304">
   <si>
     <t>Row</t>
   </si>
@@ -946,7 +946,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -956,14 +956,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,30 +990,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1032,7 +1036,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1055,7 +1059,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1078,7 +1082,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1101,7 +1105,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1124,7 +1128,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1147,7 +1151,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1170,7 +1174,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1193,7 +1197,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1239,7 +1243,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1262,7 +1266,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1285,7 +1289,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1308,7 +1312,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1331,7 +1335,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1354,7 +1358,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1377,7 +1381,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1400,7 +1404,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1423,7 +1427,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1446,7 +1450,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1469,7 +1473,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1492,7 +1496,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1515,7 +1519,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1538,7 +1542,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1561,7 +1565,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1584,7 +1588,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1607,7 +1611,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1630,7 +1634,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1653,7 +1657,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1676,7 +1680,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1699,7 +1703,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1722,7 +1726,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1745,7 +1749,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1768,7 +1772,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1791,7 +1795,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1814,7 +1818,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1837,7 +1841,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1860,7 +1864,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1883,7 +1887,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1906,7 +1910,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1929,7 +1933,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1975,7 +1979,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1998,7 +2002,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2021,7 +2025,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2044,7 +2048,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2067,7 +2071,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2090,7 +2094,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2113,7 +2117,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2136,7 +2140,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2159,7 +2163,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2182,7 +2186,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2205,7 +2209,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2228,7 +2232,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2251,7 +2255,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2274,7 +2278,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2297,7 +2301,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2320,7 +2324,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2343,7 +2347,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2366,7 +2370,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2389,7 +2393,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2412,7 +2416,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2435,7 +2439,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2458,7 +2462,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2481,7 +2485,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2504,7 +2508,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2527,7 +2531,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2550,7 +2554,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2573,7 +2577,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2596,7 +2600,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2619,7 +2623,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2642,7 +2646,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2665,7 +2669,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2688,7 +2692,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2711,7 +2715,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2734,7 +2738,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2757,7 +2761,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2780,7 +2784,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2803,7 +2807,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2826,3159 +2830,3159 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
+      <c r="A81" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>0.20355980069816357</v>
+        <v>0.0057046588547951674</v>
       </c>
       <c r="C81">
-        <v>0.28480976754194637</v>
+        <v>0.2523895846000665</v>
       </c>
       <c r="D81">
-        <v>0.18329434937610162</v>
+        <v>0.11521666024658737</v>
       </c>
       <c r="E81">
-        <v>0.062033760878691842</v>
+        <v>0.011944889421843619</v>
       </c>
       <c r="F81">
-        <v>0.26630232150509653</v>
+        <v>0.61474420687670739</v>
       </c>
       <c r="G81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0.31475572384095174</v>
+      </c>
+      <c r="C82">
+        <v>0.077430237743789751</v>
+      </c>
+      <c r="D82">
+        <v>0.24643149416885174</v>
+      </c>
+      <c r="E82">
+        <v>0.12898062793823817</v>
+      </c>
+      <c r="F82">
+        <v>0.23240191630816842</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.35982373379200272</v>
+      </c>
+      <c r="C83">
+        <v>0.23571906873176479</v>
+      </c>
+      <c r="D83">
+        <v>0.16739715984019315</v>
+      </c>
+      <c r="E83">
+        <v>0.044130726775246043</v>
+      </c>
+      <c r="F83">
+        <v>0.19292931086079332</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.23135351991323366</v>
+      </c>
+      <c r="C84">
+        <v>0.37862622905800547</v>
+      </c>
+      <c r="D84">
+        <v>0.13075582851235035</v>
+      </c>
+      <c r="E84">
+        <v>0.039359894856190375</v>
+      </c>
+      <c r="F84">
+        <v>0.21990452766022014</v>
+      </c>
+      <c r="G84">
         <v>2</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>0.0057046588547951674</v>
-      </c>
-      <c r="C82">
-        <v>0.2523895846000665</v>
-      </c>
-      <c r="D82">
-        <v>0.11521666024658737</v>
-      </c>
-      <c r="E82">
-        <v>0.011944889421843619</v>
-      </c>
-      <c r="F82">
-        <v>0.61474420687670739</v>
-      </c>
-      <c r="G82">
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>0.31634739448885435</v>
+      </c>
+      <c r="C85">
+        <v>0.1978720043101867</v>
+      </c>
+      <c r="D85">
+        <v>0.12447067980366924</v>
+      </c>
+      <c r="E85">
+        <v>0.01980961997800091</v>
+      </c>
+      <c r="F85">
+        <v>0.34150030141928867</v>
+      </c>
+      <c r="G85">
         <v>5</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>0.31475572384095174</v>
-      </c>
-      <c r="C83">
-        <v>0.077430237743789751</v>
-      </c>
-      <c r="D83">
-        <v>0.24643149416885174</v>
-      </c>
-      <c r="E83">
-        <v>0.12898062793823817</v>
-      </c>
-      <c r="F83">
-        <v>0.23240191630816842</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>0.31253084524229946</v>
-      </c>
-      <c r="C84">
-        <v>0.29172540712130579</v>
-      </c>
-      <c r="D84">
-        <v>0.21581095217417773</v>
-      </c>
-      <c r="E84">
-        <v>0.015530654042004396</v>
-      </c>
-      <c r="F84">
-        <v>0.16440214142021256</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>0.35982373379200272</v>
-      </c>
-      <c r="C85">
-        <v>0.23571906873176479</v>
-      </c>
-      <c r="D85">
-        <v>0.16739715984019315</v>
-      </c>
-      <c r="E85">
-        <v>0.044130726775246043</v>
-      </c>
-      <c r="F85">
-        <v>0.19292931086079332</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
+      <c r="A86" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.23135351991323366</v>
+        <v>0.32853584943449293</v>
       </c>
       <c r="C86">
-        <v>0.37862622905800547</v>
+        <v>0.21496548702446744</v>
       </c>
       <c r="D86">
-        <v>0.13075582851235035</v>
+        <v>0.12676732071544314</v>
       </c>
       <c r="E86">
-        <v>0.039359894856190375</v>
+        <v>0.04242295162951585</v>
       </c>
       <c r="F86">
-        <v>0.21990452766022014</v>
+        <v>0.28730839119608054</v>
       </c>
       <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0.27131800716559967</v>
+      </c>
+      <c r="C87">
+        <v>0.5273102200996922</v>
+      </c>
+      <c r="D87">
+        <v>0.06050481442781408</v>
+      </c>
+      <c r="E87">
+        <v>0.017499247229874611</v>
+      </c>
+      <c r="F87">
+        <v>0.12336771107701948</v>
+      </c>
+      <c r="G87">
         <v>2</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>0.31634739448885435</v>
-      </c>
-      <c r="C87">
-        <v>0.1978720043101867</v>
-      </c>
-      <c r="D87">
-        <v>0.12447067980366924</v>
-      </c>
-      <c r="E87">
-        <v>0.01980961997800091</v>
-      </c>
-      <c r="F87">
-        <v>0.34150030141928867</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-    </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
+      <c r="A88" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.32853584943449293</v>
+        <v>0.32238691840303435</v>
       </c>
       <c r="C88">
-        <v>0.21496548702446744</v>
+        <v>0.33282179235097453</v>
       </c>
       <c r="D88">
-        <v>0.12676732071544314</v>
+        <v>0.14901111995667271</v>
       </c>
       <c r="E88">
-        <v>0.04242295162951585</v>
+        <v>0.032632802002024328</v>
       </c>
       <c r="F88">
-        <v>0.28730839119608054</v>
+        <v>0.16314736728729418</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
+      <c r="A89" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.27131800716559967</v>
+        <v>0.31639864008407043</v>
       </c>
       <c r="C89">
-        <v>0.5273102200996922</v>
+        <v>0.29852006271206094</v>
       </c>
       <c r="D89">
-        <v>0.06050481442781408</v>
+        <v>0.17693741925381348</v>
       </c>
       <c r="E89">
-        <v>0.017499247229874611</v>
+        <v>0.098307397246587533</v>
       </c>
       <c r="F89">
-        <v>0.12336771107701948</v>
+        <v>0.1098364807034676</v>
       </c>
       <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0.35704933494915769</v>
+      </c>
+      <c r="C90">
+        <v>0.26195873660820324</v>
+      </c>
+      <c r="D90">
+        <v>0.16073080177501109</v>
+      </c>
+      <c r="E90">
+        <v>0.038322002786212582</v>
+      </c>
+      <c r="F90">
+        <v>0.18193912388141556</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0.29834664735004868</v>
+      </c>
+      <c r="C91">
+        <v>0.12845100792496852</v>
+      </c>
+      <c r="D91">
+        <v>0.22746059078694941</v>
+      </c>
+      <c r="E91">
+        <v>0.16381225977360012</v>
+      </c>
+      <c r="F91">
+        <v>0.18192949416443333</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.33587924248688716</v>
+      </c>
+      <c r="C92">
+        <v>0.17432580099667835</v>
+      </c>
+      <c r="D92">
+        <v>0.2363756731124956</v>
+      </c>
+      <c r="E92">
+        <v>0.10001021671214355</v>
+      </c>
+      <c r="F92">
+        <v>0.15340906669179538</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.34761873532431947</v>
+      </c>
+      <c r="C93">
+        <v>0.31884836831877672</v>
+      </c>
+      <c r="D93">
+        <v>0.083660478964659377</v>
+      </c>
+      <c r="E93">
+        <v>0.06047042016143004</v>
+      </c>
+      <c r="F93">
+        <v>0.18940199723081447</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.0011525584738130068</v>
+      </c>
+      <c r="C94">
+        <v>1.6209135373764214e-05</v>
+      </c>
+      <c r="D94">
+        <v>0.96754096787857491</v>
+      </c>
+      <c r="E94">
+        <v>0.0017792310953583771</v>
+      </c>
+      <c r="F94">
+        <v>0.029511033416880064</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.29303481610410587</v>
+      </c>
+      <c r="C95">
+        <v>0.048363420965575631</v>
+      </c>
+      <c r="D95">
+        <v>0.34342509420355422</v>
+      </c>
+      <c r="E95">
+        <v>0.10983405560449497</v>
+      </c>
+      <c r="F95">
+        <v>0.20534261312226931</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0.30070556270299148</v>
+      </c>
+      <c r="C96">
+        <v>0.1621171204385991</v>
+      </c>
+      <c r="D96">
+        <v>0.24014506918379255</v>
+      </c>
+      <c r="E96">
+        <v>0.10294606419784691</v>
+      </c>
+      <c r="F96">
+        <v>0.19408618347676981</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.31077052561924023</v>
+      </c>
+      <c r="C97">
+        <v>0.26681115665639837</v>
+      </c>
+      <c r="D97">
+        <v>0.14780302695531314</v>
+      </c>
+      <c r="E97">
+        <v>0.09319452612324855</v>
+      </c>
+      <c r="F97">
+        <v>0.18142076464579976</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.3055268373169287</v>
+      </c>
+      <c r="C98">
+        <v>0.087668219879252093</v>
+      </c>
+      <c r="D98">
+        <v>0.25071478179297763</v>
+      </c>
+      <c r="E98">
+        <v>0.1435363359194215</v>
+      </c>
+      <c r="F98">
+        <v>0.21255382509142015</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.0011525584738130068</v>
+      </c>
+      <c r="C99">
+        <v>1.6209135373764214e-05</v>
+      </c>
+      <c r="D99">
+        <v>0.96754096787857491</v>
+      </c>
+      <c r="E99">
+        <v>0.0017792310953583771</v>
+      </c>
+      <c r="F99">
+        <v>0.029511033416880064</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.29627685518025904</v>
+      </c>
+      <c r="C100">
+        <v>0.12298720947964036</v>
+      </c>
+      <c r="D100">
+        <v>0.36281125873636211</v>
+      </c>
+      <c r="E100">
+        <v>0.11441415753178831</v>
+      </c>
+      <c r="F100">
+        <v>0.1035105190719503</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.35451031864706972</v>
+      </c>
+      <c r="C101">
+        <v>0.26507167615366284</v>
+      </c>
+      <c r="D101">
+        <v>0.13027975828856767</v>
+      </c>
+      <c r="E101">
+        <v>0.035661858411318186</v>
+      </c>
+      <c r="F101">
+        <v>0.21447638849938166</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.3274894332734864</v>
+      </c>
+      <c r="C102">
+        <v>0.3862010504591773</v>
+      </c>
+      <c r="D102">
+        <v>0.11562707093607456</v>
+      </c>
+      <c r="E102">
+        <v>0.013506955865773477</v>
+      </c>
+      <c r="F102">
+        <v>0.15717548946548832</v>
+      </c>
+      <c r="G102">
         <v>2</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>0.32238691840303435</v>
-      </c>
-      <c r="C90">
-        <v>0.33282179235097453</v>
-      </c>
-      <c r="D90">
-        <v>0.14901111995667271</v>
-      </c>
-      <c r="E90">
-        <v>0.032632802002024328</v>
-      </c>
-      <c r="F90">
-        <v>0.16314736728729418</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>0.31639864008407043</v>
-      </c>
-      <c r="C91">
-        <v>0.29852006271206094</v>
-      </c>
-      <c r="D91">
-        <v>0.17693741925381348</v>
-      </c>
-      <c r="E91">
-        <v>0.098307397246587533</v>
-      </c>
-      <c r="F91">
-        <v>0.1098364807034676</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>0.35704933494915769</v>
-      </c>
-      <c r="C92">
-        <v>0.26195873660820324</v>
-      </c>
-      <c r="D92">
-        <v>0.16073080177501109</v>
-      </c>
-      <c r="E92">
-        <v>0.038322002786212582</v>
-      </c>
-      <c r="F92">
-        <v>0.18193912388141556</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>0.29834664735004868</v>
-      </c>
-      <c r="C93">
-        <v>0.12845100792496852</v>
-      </c>
-      <c r="D93">
-        <v>0.22746059078694941</v>
-      </c>
-      <c r="E93">
-        <v>0.16381225977360012</v>
-      </c>
-      <c r="F93">
-        <v>0.18192949416443333</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>0.33587924248688716</v>
-      </c>
-      <c r="C94">
-        <v>0.17432580099667835</v>
-      </c>
-      <c r="D94">
-        <v>0.2363756731124956</v>
-      </c>
-      <c r="E94">
-        <v>0.10001021671214355</v>
-      </c>
-      <c r="F94">
-        <v>0.15340906669179538</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>0.34761873532431947</v>
-      </c>
-      <c r="C95">
-        <v>0.31884836831877672</v>
-      </c>
-      <c r="D95">
-        <v>0.083660478964659377</v>
-      </c>
-      <c r="E95">
-        <v>0.06047042016143004</v>
-      </c>
-      <c r="F95">
-        <v>0.18940199723081447</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>0.0011525584738130068</v>
-      </c>
-      <c r="C96">
-        <v>1.6209135373764214e-05</v>
-      </c>
-      <c r="D96">
-        <v>0.96754096787857491</v>
-      </c>
-      <c r="E96">
-        <v>0.0017792310953583771</v>
-      </c>
-      <c r="F96">
-        <v>0.029511033416880064</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>0.29303481610410587</v>
-      </c>
-      <c r="C97">
-        <v>0.048363420965575631</v>
-      </c>
-      <c r="D97">
-        <v>0.34342509420355422</v>
-      </c>
-      <c r="E97">
-        <v>0.10983405560449497</v>
-      </c>
-      <c r="F97">
-        <v>0.20534261312226931</v>
-      </c>
-      <c r="G97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>0.30070556270299148</v>
-      </c>
-      <c r="C98">
-        <v>0.1621171204385991</v>
-      </c>
-      <c r="D98">
-        <v>0.24014506918379255</v>
-      </c>
-      <c r="E98">
-        <v>0.10294606419784691</v>
-      </c>
-      <c r="F98">
-        <v>0.19408618347676981</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>0.31077052561924023</v>
-      </c>
-      <c r="C99">
-        <v>0.26681115665639837</v>
-      </c>
-      <c r="D99">
-        <v>0.14780302695531314</v>
-      </c>
-      <c r="E99">
-        <v>0.09319452612324855</v>
-      </c>
-      <c r="F99">
-        <v>0.18142076464579976</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>0.3055268373169287</v>
-      </c>
-      <c r="C100">
-        <v>0.087668219879252093</v>
-      </c>
-      <c r="D100">
-        <v>0.25071478179297763</v>
-      </c>
-      <c r="E100">
-        <v>0.1435363359194215</v>
-      </c>
-      <c r="F100">
-        <v>0.21255382509142015</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>0.0011525584738130068</v>
-      </c>
-      <c r="C101">
-        <v>1.6209135373764214e-05</v>
-      </c>
-      <c r="D101">
-        <v>0.96754096787857491</v>
-      </c>
-      <c r="E101">
-        <v>0.0017792310953583771</v>
-      </c>
-      <c r="F101">
-        <v>0.029511033416880064</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>0.29627685518025904</v>
-      </c>
-      <c r="C102">
-        <v>0.12298720947964036</v>
-      </c>
-      <c r="D102">
-        <v>0.36281125873636211</v>
-      </c>
-      <c r="E102">
-        <v>0.11441415753178831</v>
-      </c>
-      <c r="F102">
-        <v>0.1035105190719503</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-    </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
+      <c r="A103" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>0.35451031864706972</v>
+        <v>0.32269885811161086</v>
       </c>
       <c r="C103">
-        <v>0.26507167615366284</v>
+        <v>0.13884367272555914</v>
       </c>
       <c r="D103">
-        <v>0.13027975828856767</v>
+        <v>0.21589700661643635</v>
       </c>
       <c r="E103">
-        <v>0.035661858411318186</v>
+        <v>0.12349733552656109</v>
       </c>
       <c r="F103">
-        <v>0.21447638849938166</v>
+        <v>0.19906312701983264</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
+      <c r="A104" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>0.3274894332734864</v>
+        <v>0.28894138116142626</v>
       </c>
       <c r="C104">
-        <v>0.3862010504591773</v>
+        <v>0.29985789154201481</v>
       </c>
       <c r="D104">
-        <v>0.11562707093607456</v>
+        <v>0.12551526667837412</v>
       </c>
       <c r="E104">
-        <v>0.013506955865773477</v>
+        <v>0.084729365713640967</v>
       </c>
       <c r="F104">
-        <v>0.15717548946548832</v>
+        <v>0.2009560949045438</v>
       </c>
       <c r="G104">
         <v>2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
+      <c r="A105" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B105">
-        <v>0.32269885811161086</v>
+        <v>0.26945048313927605</v>
       </c>
       <c r="C105">
-        <v>0.13884367272555914</v>
+        <v>0.28130225177550117</v>
       </c>
       <c r="D105">
-        <v>0.21589700661643635</v>
+        <v>0.15428310299483863</v>
       </c>
       <c r="E105">
-        <v>0.12349733552656109</v>
+        <v>0.027326660317613011</v>
       </c>
       <c r="F105">
-        <v>0.19906312701983264</v>
+        <v>0.26763750177277129</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
+      <c r="A106" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>0.28894138116142626</v>
+        <v>0.27426990708834309</v>
       </c>
       <c r="C106">
-        <v>0.29985789154201481</v>
+        <v>0.099052106510231344</v>
       </c>
       <c r="D106">
-        <v>0.12551526667837412</v>
+        <v>0.32577438576836709</v>
       </c>
       <c r="E106">
-        <v>0.084729365713640967</v>
+        <v>0.11654366423202556</v>
       </c>
       <c r="F106">
-        <v>0.2009560949045438</v>
+        <v>0.18435993640103288</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.32818747495410472</v>
+      </c>
+      <c r="C107">
+        <v>0.23152501599708353</v>
+      </c>
+      <c r="D107">
+        <v>0.15590830789041446</v>
+      </c>
+      <c r="E107">
+        <v>0.061259490745213051</v>
+      </c>
+      <c r="F107">
+        <v>0.22311971041318421</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.33594986158641743</v>
+      </c>
+      <c r="C108">
+        <v>0.32907303511241037</v>
+      </c>
+      <c r="D108">
+        <v>0.037028810346180781</v>
+      </c>
+      <c r="E108">
+        <v>0.014449896545637253</v>
+      </c>
+      <c r="F108">
+        <v>0.2834983964093542</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.34448229083201498</v>
+      </c>
+      <c r="C109">
+        <v>0.26627493074984115</v>
+      </c>
+      <c r="D109">
+        <v>0.14184214507917534</v>
+      </c>
+      <c r="E109">
+        <v>0.037418266937535527</v>
+      </c>
+      <c r="F109">
+        <v>0.20998236640143308</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0.32784791067942282</v>
+      </c>
+      <c r="C110">
+        <v>0.15785372354187285</v>
+      </c>
+      <c r="D110">
+        <v>0.16969596084414432</v>
+      </c>
+      <c r="E110">
+        <v>0.029641147127405554</v>
+      </c>
+      <c r="F110">
+        <v>0.3149612578071545</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.0075475640807523342</v>
+      </c>
+      <c r="C111">
+        <v>0.0016309539120814972</v>
+      </c>
+      <c r="D111">
+        <v>0.89388302654205387</v>
+      </c>
+      <c r="E111">
+        <v>0.0092318337953797014</v>
+      </c>
+      <c r="F111">
+        <v>0.087706621669732504</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.26327172156214795</v>
+      </c>
+      <c r="C112">
+        <v>0.41617800353321643</v>
+      </c>
+      <c r="D112">
+        <v>0.13144656497051715</v>
+      </c>
+      <c r="E112">
+        <v>0.049979546259365633</v>
+      </c>
+      <c r="F112">
+        <v>0.13912416367475272</v>
+      </c>
+      <c r="G112">
         <v>2</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>0.26945048313927605</v>
-      </c>
-      <c r="C107">
-        <v>0.28130225177550117</v>
-      </c>
-      <c r="D107">
-        <v>0.15428310299483863</v>
-      </c>
-      <c r="E107">
-        <v>0.027326660317613011</v>
-      </c>
-      <c r="F107">
-        <v>0.26763750177277129</v>
-      </c>
-      <c r="G107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>0.27426990708834309</v>
-      </c>
-      <c r="C108">
-        <v>0.099052106510231344</v>
-      </c>
-      <c r="D108">
-        <v>0.32577438576836709</v>
-      </c>
-      <c r="E108">
-        <v>0.11654366423202556</v>
-      </c>
-      <c r="F108">
-        <v>0.18435993640103288</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>0.32818747495410472</v>
-      </c>
-      <c r="C109">
-        <v>0.23152501599708353</v>
-      </c>
-      <c r="D109">
-        <v>0.15590830789041446</v>
-      </c>
-      <c r="E109">
-        <v>0.061259490745213051</v>
-      </c>
-      <c r="F109">
-        <v>0.22311971041318421</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>0.33594986158641743</v>
-      </c>
-      <c r="C110">
-        <v>0.32907303511241037</v>
-      </c>
-      <c r="D110">
-        <v>0.037028810346180781</v>
-      </c>
-      <c r="E110">
-        <v>0.014449896545637253</v>
-      </c>
-      <c r="F110">
-        <v>0.2834983964093542</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>0.34448229083201498</v>
-      </c>
-      <c r="C111">
-        <v>0.26627493074984115</v>
-      </c>
-      <c r="D111">
-        <v>0.14184214507917534</v>
-      </c>
-      <c r="E111">
-        <v>0.037418266937535527</v>
-      </c>
-      <c r="F111">
-        <v>0.20998236640143308</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>0.32784791067942282</v>
-      </c>
-      <c r="C112">
-        <v>0.15785372354187285</v>
-      </c>
-      <c r="D112">
-        <v>0.16969596084414432</v>
-      </c>
-      <c r="E112">
-        <v>0.029641147127405554</v>
-      </c>
-      <c r="F112">
-        <v>0.3149612578071545</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-    </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
+      <c r="A113" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B113">
-        <v>0.0075475640807523342</v>
+        <v>0.0026878354500764418</v>
       </c>
       <c r="C113">
-        <v>0.0016309539120814972</v>
+        <v>0.000338732772986957</v>
       </c>
       <c r="D113">
-        <v>0.89388302654205387</v>
+        <v>0.95859767224378867</v>
       </c>
       <c r="E113">
-        <v>0.0092318337953797014</v>
+        <v>0.0016084256433876766</v>
       </c>
       <c r="F113">
-        <v>0.087706621669732504</v>
+        <v>0.036767333889760244</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
+      <c r="A114" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B114">
-        <v>0.26327172156214795</v>
+        <v>0.30114732893199708</v>
       </c>
       <c r="C114">
-        <v>0.41617800353321643</v>
+        <v>0.40737685315513</v>
       </c>
       <c r="D114">
-        <v>0.13144656497051715</v>
+        <v>0.094143101712510432</v>
       </c>
       <c r="E114">
-        <v>0.049979546259365633</v>
+        <v>0.022448784443990292</v>
       </c>
       <c r="F114">
-        <v>0.13912416367475272</v>
+        <v>0.17488393175637204</v>
       </c>
       <c r="G114">
         <v>2</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
+      <c r="A115" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B115">
-        <v>0.0026878354500764418</v>
+        <v>0.35579093950897561</v>
       </c>
       <c r="C115">
-        <v>0.000338732772986957</v>
+        <v>0.39945083063286713</v>
       </c>
       <c r="D115">
-        <v>0.95859767224378867</v>
+        <v>0.085321714645750682</v>
       </c>
       <c r="E115">
-        <v>0.0016084256433876766</v>
+        <v>0.029874266251481742</v>
       </c>
       <c r="F115">
-        <v>0.036767333889760244</v>
+        <v>0.12956224896092478</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
+      <c r="A116" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B116">
-        <v>0.30114732893199708</v>
+        <v>0.33499593257369747</v>
       </c>
       <c r="C116">
-        <v>0.40737685315513</v>
+        <v>0.35829688538024934</v>
       </c>
       <c r="D116">
-        <v>0.094143101712510432</v>
+        <v>0.088931177184574065</v>
       </c>
       <c r="E116">
-        <v>0.022448784443990292</v>
+        <v>0.083323301493637994</v>
       </c>
       <c r="F116">
-        <v>0.17488393175637204</v>
+        <v>0.13445270336784118</v>
       </c>
       <c r="G116">
         <v>2</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
+      <c r="A117" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B117">
-        <v>0.35579093950897561</v>
+        <v>0.33694219839417183</v>
       </c>
       <c r="C117">
-        <v>0.39945083063286713</v>
+        <v>0.3494330634331107</v>
       </c>
       <c r="D117">
-        <v>0.085321714645750682</v>
+        <v>0.12246524555749939</v>
       </c>
       <c r="E117">
-        <v>0.029874266251481742</v>
+        <v>0.049711433404105533</v>
       </c>
       <c r="F117">
-        <v>0.12956224896092478</v>
+        <v>0.1414480592111125</v>
       </c>
       <c r="G117">
         <v>2</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
+      <c r="A118" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B118">
-        <v>0.33499593257369747</v>
+        <v>0.29179784527336083</v>
       </c>
       <c r="C118">
-        <v>0.35829688538024934</v>
+        <v>0.19119813986037013</v>
       </c>
       <c r="D118">
-        <v>0.088931177184574065</v>
+        <v>0.24810159538223123</v>
       </c>
       <c r="E118">
-        <v>0.083323301493637994</v>
+        <v>0.080435967073593295</v>
       </c>
       <c r="F118">
-        <v>0.13445270336784118</v>
+        <v>0.18846645241044452</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
+      <c r="A119" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B119">
-        <v>0.33694219839417183</v>
+        <v>0.35126157844935657</v>
       </c>
       <c r="C119">
-        <v>0.3494330634331107</v>
+        <v>0.44468493586113567</v>
       </c>
       <c r="D119">
-        <v>0.12246524555749939</v>
+        <v>0.075410468957098437</v>
       </c>
       <c r="E119">
-        <v>0.049711433404105533</v>
+        <v>0.018044466300620527</v>
       </c>
       <c r="F119">
-        <v>0.1414480592111125</v>
+        <v>0.11059855043178866</v>
       </c>
       <c r="G119">
         <v>2</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
+      <c r="A120" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B120">
-        <v>0.29179784527336083</v>
+        <v>0.34119947112466015</v>
       </c>
       <c r="C120">
-        <v>0.19119813986037013</v>
+        <v>0.12445621640683492</v>
       </c>
       <c r="D120">
-        <v>0.24810159538223123</v>
+        <v>0.2268243453272385</v>
       </c>
       <c r="E120">
-        <v>0.080435967073593295</v>
+        <v>0.077059402813660222</v>
       </c>
       <c r="F120">
-        <v>0.18846645241044452</v>
+        <v>0.23046056432760631</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
+      <c r="A121" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B121">
-        <v>0.053025864330396182</v>
+        <v>0.26117479822877748</v>
       </c>
       <c r="C121">
-        <v>0.8277252524465446</v>
+        <v>0.10344850012360614</v>
       </c>
       <c r="D121">
-        <v>0.006004268612334265</v>
+        <v>0.38921056121958719</v>
       </c>
       <c r="E121">
-        <v>0.0044491812299021034</v>
+        <v>0.046741680643748333</v>
       </c>
       <c r="F121">
-        <v>0.10879543338082286</v>
+        <v>0.19942445978428092</v>
       </c>
       <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>0.38855234177770659</v>
+      </c>
+      <c r="C122">
+        <v>0.17521807729399061</v>
+      </c>
+      <c r="D122">
+        <v>0.1989956388009857</v>
+      </c>
+      <c r="E122">
+        <v>0.051519828830787172</v>
+      </c>
+      <c r="F122">
+        <v>0.1857141132965299</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>0.0011751034412889037</v>
+      </c>
+      <c r="C123">
+        <v>0.00037042310111993923</v>
+      </c>
+      <c r="D123">
+        <v>0.97210108734622336</v>
+      </c>
+      <c r="E123">
+        <v>0.000836507204488546</v>
+      </c>
+      <c r="F123">
+        <v>0.025516878906879252</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>0.35291664311609944</v>
+      </c>
+      <c r="C124">
+        <v>0.27977506030145066</v>
+      </c>
+      <c r="D124">
+        <v>0.1484033648823517</v>
+      </c>
+      <c r="E124">
+        <v>0.033519185209241138</v>
+      </c>
+      <c r="F124">
+        <v>0.18538574649085693</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>0.35335243216462542</v>
+      </c>
+      <c r="C125">
+        <v>0.086461852402327025</v>
+      </c>
+      <c r="D125">
+        <v>0.29361789661748594</v>
+      </c>
+      <c r="E125">
+        <v>0.033830456041732675</v>
+      </c>
+      <c r="F125">
+        <v>0.232737362773829</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>0.27937957849511141</v>
+      </c>
+      <c r="C126">
+        <v>0.24524869927752663</v>
+      </c>
+      <c r="D126">
+        <v>0.1724878357041438</v>
+      </c>
+      <c r="E126">
+        <v>0.04736885377877996</v>
+      </c>
+      <c r="F126">
+        <v>0.25551503274443826</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>0.0026476192244056082</v>
+      </c>
+      <c r="C127">
+        <v>0.00010427425499093504</v>
+      </c>
+      <c r="D127">
+        <v>0.95441666638047007</v>
+      </c>
+      <c r="E127">
+        <v>0.0011664718547197556</v>
+      </c>
+      <c r="F127">
+        <v>0.041664968285413703</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>0.33035155747614353</v>
+      </c>
+      <c r="C128">
+        <v>0.21370928094085981</v>
+      </c>
+      <c r="D128">
+        <v>0.091376784260109783</v>
+      </c>
+      <c r="E128">
+        <v>0.076881270802845667</v>
+      </c>
+      <c r="F128">
+        <v>0.28768110652004131</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>0.37920671414360441</v>
+      </c>
+      <c r="C129">
+        <v>0.27617305460969627</v>
+      </c>
+      <c r="D129">
+        <v>0.10613626893608166</v>
+      </c>
+      <c r="E129">
+        <v>0.049394539094089022</v>
+      </c>
+      <c r="F129">
+        <v>0.18908942321652847</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>0.27836750383215836</v>
+      </c>
+      <c r="C130">
+        <v>0.13820927983035927</v>
+      </c>
+      <c r="D130">
+        <v>0.34893298696427294</v>
+      </c>
+      <c r="E130">
+        <v>0.044764011053494646</v>
+      </c>
+      <c r="F130">
+        <v>0.1897262183197147</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>0.28123511765244108</v>
+      </c>
+      <c r="C131">
+        <v>0.50038068977505368</v>
+      </c>
+      <c r="D131">
+        <v>0.030588260518699888</v>
+      </c>
+      <c r="E131">
+        <v>0.01443504467747047</v>
+      </c>
+      <c r="F131">
+        <v>0.17336088737633501</v>
+      </c>
+      <c r="G131">
         <v>2</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>0.35126157844935657</v>
-      </c>
-      <c r="C122">
-        <v>0.44468493586113567</v>
-      </c>
-      <c r="D122">
-        <v>0.075410468957098437</v>
-      </c>
-      <c r="E122">
-        <v>0.018044466300620527</v>
-      </c>
-      <c r="F122">
-        <v>0.11059855043178866</v>
-      </c>
-      <c r="G122">
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>0.30867920349252742</v>
+      </c>
+      <c r="C132">
+        <v>0.41183442991903368</v>
+      </c>
+      <c r="D132">
+        <v>0.11986058856400338</v>
+      </c>
+      <c r="E132">
+        <v>0.021070019193245835</v>
+      </c>
+      <c r="F132">
+        <v>0.13855575883118953</v>
+      </c>
+      <c r="G132">
         <v>2</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>0.34119947112466015</v>
-      </c>
-      <c r="C123">
-        <v>0.12445621640683492</v>
-      </c>
-      <c r="D123">
-        <v>0.2268243453272385</v>
-      </c>
-      <c r="E123">
-        <v>0.077059402813660222</v>
-      </c>
-      <c r="F123">
-        <v>0.23046056432760631</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>0.26117479822877748</v>
-      </c>
-      <c r="C124">
-        <v>0.10344850012360614</v>
-      </c>
-      <c r="D124">
-        <v>0.38921056121958719</v>
-      </c>
-      <c r="E124">
-        <v>0.046741680643748333</v>
-      </c>
-      <c r="F124">
-        <v>0.19942445978428092</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>0.38855234177770659</v>
-      </c>
-      <c r="C125">
-        <v>0.17521807729399061</v>
-      </c>
-      <c r="D125">
-        <v>0.1989956388009857</v>
-      </c>
-      <c r="E125">
-        <v>0.051519828830787172</v>
-      </c>
-      <c r="F125">
-        <v>0.1857141132965299</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>0.0011751034412889037</v>
-      </c>
-      <c r="C126">
-        <v>0.00037042310111993923</v>
-      </c>
-      <c r="D126">
-        <v>0.97210108734622336</v>
-      </c>
-      <c r="E126">
-        <v>0.000836507204488546</v>
-      </c>
-      <c r="F126">
-        <v>0.025516878906879252</v>
-      </c>
-      <c r="G126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>0.27631747796986056</v>
-      </c>
-      <c r="C127">
-        <v>0.33090208516744768</v>
-      </c>
-      <c r="D127">
-        <v>0.18544874933393596</v>
-      </c>
-      <c r="E127">
-        <v>0.041537733404803691</v>
-      </c>
-      <c r="F127">
-        <v>0.16579395412395215</v>
-      </c>
-      <c r="G127">
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>0.35082287077439339</v>
+      </c>
+      <c r="C133">
+        <v>0.2862965068011214</v>
+      </c>
+      <c r="D133">
+        <v>0.10542353588699858</v>
+      </c>
+      <c r="E133">
+        <v>0.054832010093823713</v>
+      </c>
+      <c r="F133">
+        <v>0.2026250764436629</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>0.33700581939717827</v>
+      </c>
+      <c r="C134">
+        <v>0.16838741992824388</v>
+      </c>
+      <c r="D134">
+        <v>0.26478884163712979</v>
+      </c>
+      <c r="E134">
+        <v>0.10806387655281549</v>
+      </c>
+      <c r="F134">
+        <v>0.12175404248463252</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>0.33880440911556142</v>
+      </c>
+      <c r="C135">
+        <v>0.14709437531817368</v>
+      </c>
+      <c r="D135">
+        <v>0.1516443133639217</v>
+      </c>
+      <c r="E135">
+        <v>0.054517135267129604</v>
+      </c>
+      <c r="F135">
+        <v>0.30793976693521374</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>0.34161361422533504</v>
+      </c>
+      <c r="C136">
+        <v>0.10873328707781234</v>
+      </c>
+      <c r="D136">
+        <v>0.28023208088497753</v>
+      </c>
+      <c r="E136">
+        <v>0.028196529153613894</v>
+      </c>
+      <c r="F136">
+        <v>0.24122448865826124</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>0.21749058656389997</v>
+      </c>
+      <c r="C137">
+        <v>0.50181466542573538</v>
+      </c>
+      <c r="D137">
+        <v>0.17394747358323584</v>
+      </c>
+      <c r="E137">
+        <v>0.0064792519473222841</v>
+      </c>
+      <c r="F137">
+        <v>0.1002680224798065</v>
+      </c>
+      <c r="G137">
         <v>2</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>0.35291664311609944</v>
-      </c>
-      <c r="C128">
-        <v>0.27977506030145066</v>
-      </c>
-      <c r="D128">
-        <v>0.1484033648823517</v>
-      </c>
-      <c r="E128">
-        <v>0.033519185209241138</v>
-      </c>
-      <c r="F128">
-        <v>0.18538574649085693</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>0.35335243216462542</v>
-      </c>
-      <c r="C129">
-        <v>0.086461852402327025</v>
-      </c>
-      <c r="D129">
-        <v>0.29361789661748594</v>
-      </c>
-      <c r="E129">
-        <v>0.033830456041732675</v>
-      </c>
-      <c r="F129">
-        <v>0.232737362773829</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>0.27937957849511141</v>
-      </c>
-      <c r="C130">
-        <v>0.24524869927752663</v>
-      </c>
-      <c r="D130">
-        <v>0.1724878357041438</v>
-      </c>
-      <c r="E130">
-        <v>0.04736885377877996</v>
-      </c>
-      <c r="F130">
-        <v>0.25551503274443826</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>0.0026476192244056082</v>
-      </c>
-      <c r="C131">
-        <v>0.00010427425499093504</v>
-      </c>
-      <c r="D131">
-        <v>0.95441666638047007</v>
-      </c>
-      <c r="E131">
-        <v>0.0011664718547197556</v>
-      </c>
-      <c r="F131">
-        <v>0.041664968285413703</v>
-      </c>
-      <c r="G131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>0.33035155747614353</v>
-      </c>
-      <c r="C132">
-        <v>0.21370928094085981</v>
-      </c>
-      <c r="D132">
-        <v>0.091376784260109783</v>
-      </c>
-      <c r="E132">
-        <v>0.076881270802845667</v>
-      </c>
-      <c r="F132">
-        <v>0.28768110652004131</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>0.37920671414360441</v>
-      </c>
-      <c r="C133">
-        <v>0.27617305460969627</v>
-      </c>
-      <c r="D133">
-        <v>0.10613626893608166</v>
-      </c>
-      <c r="E133">
-        <v>0.049394539094089022</v>
-      </c>
-      <c r="F133">
-        <v>0.18908942321652847</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>0.27836750383215836</v>
-      </c>
-      <c r="C134">
-        <v>0.13820927983035927</v>
-      </c>
-      <c r="D134">
-        <v>0.34893298696427294</v>
-      </c>
-      <c r="E134">
-        <v>0.044764011053494646</v>
-      </c>
-      <c r="F134">
-        <v>0.1897262183197147</v>
-      </c>
-      <c r="G134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>0.28123511765244108</v>
-      </c>
-      <c r="C135">
-        <v>0.50038068977505368</v>
-      </c>
-      <c r="D135">
-        <v>0.030588260518699888</v>
-      </c>
-      <c r="E135">
-        <v>0.01443504467747047</v>
-      </c>
-      <c r="F135">
-        <v>0.17336088737633501</v>
-      </c>
-      <c r="G135">
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>0.3103497570947083</v>
+      </c>
+      <c r="C138">
+        <v>0.29220611765434584</v>
+      </c>
+      <c r="D138">
+        <v>0.081998756772002315</v>
+      </c>
+      <c r="E138">
+        <v>0.10307549382428925</v>
+      </c>
+      <c r="F138">
+        <v>0.21236987465465432</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139">
+        <v>0.17704237010643792</v>
+      </c>
+      <c r="C139">
+        <v>0.61557388730212226</v>
+      </c>
+      <c r="D139">
+        <v>0.082889385110546332</v>
+      </c>
+      <c r="E139">
+        <v>0.041432179831886268</v>
+      </c>
+      <c r="F139">
+        <v>0.083062177649007279</v>
+      </c>
+      <c r="G139">
         <v>2</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>0.30867920349252742</v>
-      </c>
-      <c r="C136">
-        <v>0.41183442991903368</v>
-      </c>
-      <c r="D136">
-        <v>0.11986058856400338</v>
-      </c>
-      <c r="E136">
-        <v>0.021070019193245835</v>
-      </c>
-      <c r="F136">
-        <v>0.13855575883118953</v>
-      </c>
-      <c r="G136">
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <v>0.3152618888592244</v>
+      </c>
+      <c r="C140">
+        <v>0.27571293272129799</v>
+      </c>
+      <c r="D140">
+        <v>0.12803972055924773</v>
+      </c>
+      <c r="E140">
+        <v>0.025051281823129368</v>
+      </c>
+      <c r="F140">
+        <v>0.2559341760371005</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>0.36353534489569039</v>
+      </c>
+      <c r="C141">
+        <v>0.15089075949105785</v>
+      </c>
+      <c r="D141">
+        <v>0.22112444627258912</v>
+      </c>
+      <c r="E141">
+        <v>0.019664799276420689</v>
+      </c>
+      <c r="F141">
+        <v>0.24478465006424194</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142">
+        <v>0.28646312516276301</v>
+      </c>
+      <c r="C142">
+        <v>0.20408971666901765</v>
+      </c>
+      <c r="D142">
+        <v>0.30379029553991971</v>
+      </c>
+      <c r="E142">
+        <v>0.11194277161865203</v>
+      </c>
+      <c r="F142">
+        <v>0.093714091009647504</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>0.36734624863881798</v>
+      </c>
+      <c r="C143">
+        <v>0.28085550727588482</v>
+      </c>
+      <c r="D143">
+        <v>0.14071541421573339</v>
+      </c>
+      <c r="E143">
+        <v>0.045367696985030279</v>
+      </c>
+      <c r="F143">
+        <v>0.16571513288453354</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>0.34310159743328983</v>
+      </c>
+      <c r="C144">
+        <v>0.17268469698499245</v>
+      </c>
+      <c r="D144">
+        <v>0.17159215963498228</v>
+      </c>
+      <c r="E144">
+        <v>0.1034956225101029</v>
+      </c>
+      <c r="F144">
+        <v>0.20912592343663272</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145">
+        <v>0.30763217174214313</v>
+      </c>
+      <c r="C145">
+        <v>0.33177567816473186</v>
+      </c>
+      <c r="D145">
+        <v>0.15567551327219348</v>
+      </c>
+      <c r="E145">
+        <v>0.05222362827746467</v>
+      </c>
+      <c r="F145">
+        <v>0.15269300854346671</v>
+      </c>
+      <c r="G145">
         <v>2</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>0.35082287077439339</v>
-      </c>
-      <c r="C137">
-        <v>0.2862965068011214</v>
-      </c>
-      <c r="D137">
-        <v>0.10542353588699858</v>
-      </c>
-      <c r="E137">
-        <v>0.054832010093823713</v>
-      </c>
-      <c r="F137">
-        <v>0.2026250764436629</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>0.33700581939717827</v>
-      </c>
-      <c r="C138">
-        <v>0.16838741992824388</v>
-      </c>
-      <c r="D138">
-        <v>0.26478884163712979</v>
-      </c>
-      <c r="E138">
-        <v>0.10806387655281549</v>
-      </c>
-      <c r="F138">
-        <v>0.12175404248463252</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>0.33880440911556142</v>
-      </c>
-      <c r="C139">
-        <v>0.14709437531817368</v>
-      </c>
-      <c r="D139">
-        <v>0.1516443133639217</v>
-      </c>
-      <c r="E139">
-        <v>0.054517135267129604</v>
-      </c>
-      <c r="F139">
-        <v>0.30793976693521374</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>0.34161361422533504</v>
-      </c>
-      <c r="C140">
-        <v>0.10873328707781234</v>
-      </c>
-      <c r="D140">
-        <v>0.28023208088497753</v>
-      </c>
-      <c r="E140">
-        <v>0.028196529153613894</v>
-      </c>
-      <c r="F140">
-        <v>0.24122448865826124</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>0.21749058656389997</v>
-      </c>
-      <c r="C141">
-        <v>0.50181466542573538</v>
-      </c>
-      <c r="D141">
-        <v>0.17394747358323584</v>
-      </c>
-      <c r="E141">
-        <v>0.0064792519473222841</v>
-      </c>
-      <c r="F141">
-        <v>0.1002680224798065</v>
-      </c>
-      <c r="G141">
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>0.34310159743328983</v>
+      </c>
+      <c r="C146">
+        <v>0.17268469698499245</v>
+      </c>
+      <c r="D146">
+        <v>0.17159215963498228</v>
+      </c>
+      <c r="E146">
+        <v>0.1034956225101029</v>
+      </c>
+      <c r="F146">
+        <v>0.20912592343663272</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147">
+        <v>0.26354641725761024</v>
+      </c>
+      <c r="C147">
+        <v>0.33390500199841744</v>
+      </c>
+      <c r="D147">
+        <v>0.15445950519725235</v>
+      </c>
+      <c r="E147">
+        <v>0.035533562171197491</v>
+      </c>
+      <c r="F147">
+        <v>0.21255551337552248</v>
+      </c>
+      <c r="G147">
         <v>2</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>0.3103497570947083</v>
-      </c>
-      <c r="C142">
-        <v>0.29220611765434584</v>
-      </c>
-      <c r="D142">
-        <v>0.081998756772002315</v>
-      </c>
-      <c r="E142">
-        <v>0.10307549382428925</v>
-      </c>
-      <c r="F142">
-        <v>0.21236987465465432</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>0.21138944991743253</v>
-      </c>
-      <c r="C143">
-        <v>0.49166190567806434</v>
-      </c>
-      <c r="D143">
-        <v>0.10717777703478419</v>
-      </c>
-      <c r="E143">
-        <v>0.024870357046914263</v>
-      </c>
-      <c r="F143">
-        <v>0.16490051032280453</v>
-      </c>
-      <c r="G143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>0.17704237010643792</v>
-      </c>
-      <c r="C144">
-        <v>0.61557388730212226</v>
-      </c>
-      <c r="D144">
-        <v>0.082889385110546332</v>
-      </c>
-      <c r="E144">
-        <v>0.041432179831886268</v>
-      </c>
-      <c r="F144">
-        <v>0.083062177649007279</v>
-      </c>
-      <c r="G144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>0.3152618888592244</v>
-      </c>
-      <c r="C145">
-        <v>0.27571293272129799</v>
-      </c>
-      <c r="D145">
-        <v>0.12803972055924773</v>
-      </c>
-      <c r="E145">
-        <v>0.025051281823129368</v>
-      </c>
-      <c r="F145">
-        <v>0.2559341760371005</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>0.36353534489569039</v>
-      </c>
-      <c r="C146">
-        <v>0.15089075949105785</v>
-      </c>
-      <c r="D146">
-        <v>0.22112444627258912</v>
-      </c>
-      <c r="E146">
-        <v>0.019664799276420689</v>
-      </c>
-      <c r="F146">
-        <v>0.24478465006424194</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>0.28646312516276301</v>
-      </c>
-      <c r="C147">
-        <v>0.20408971666901765</v>
-      </c>
-      <c r="D147">
-        <v>0.30379029553991971</v>
-      </c>
-      <c r="E147">
-        <v>0.11194277161865203</v>
-      </c>
-      <c r="F147">
-        <v>0.093714091009647504</v>
-      </c>
-      <c r="G147">
-        <v>3</v>
-      </c>
-    </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
+      <c r="A148" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B148">
-        <v>0.36734624863881798</v>
+        <v>0.32073743536681798</v>
       </c>
       <c r="C148">
-        <v>0.28085550727588482</v>
+        <v>0.25581069359606579</v>
       </c>
       <c r="D148">
-        <v>0.14071541421573339</v>
+        <v>0.14893769345761801</v>
       </c>
       <c r="E148">
-        <v>0.045367696985030279</v>
+        <v>0.069176822118837883</v>
       </c>
       <c r="F148">
-        <v>0.16571513288453354</v>
+        <v>0.20533735546066051</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
+      <c r="A149" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B149">
-        <v>0.34310159743328983</v>
+        <v>0.0032173999060547825</v>
       </c>
       <c r="C149">
-        <v>0.17268469698499245</v>
+        <v>0.001601189861855621</v>
       </c>
       <c r="D149">
-        <v>0.17159215963498228</v>
+        <v>0.94264188155205364</v>
       </c>
       <c r="E149">
-        <v>0.1034956225101029</v>
+        <v>0.001215655576447233</v>
       </c>
       <c r="F149">
-        <v>0.20912592343663272</v>
+        <v>0.051323873103588817</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>149</v>
+      <c r="A150" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B150">
-        <v>0.30763217174214313</v>
+        <v>0.31730434897011056</v>
       </c>
       <c r="C150">
-        <v>0.33177567816473186</v>
+        <v>0.34653303676580066</v>
       </c>
       <c r="D150">
-        <v>0.15567551327219348</v>
+        <v>0.15711954021384353</v>
       </c>
       <c r="E150">
-        <v>0.05222362827746467</v>
+        <v>0.056092188442005454</v>
       </c>
       <c r="F150">
-        <v>0.15269300854346671</v>
+        <v>0.12295088560823993</v>
       </c>
       <c r="G150">
         <v>2</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>150</v>
+      <c r="A151" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B151">
-        <v>0.34310159743328983</v>
+        <v>0.36622308777458923</v>
       </c>
       <c r="C151">
-        <v>0.17268469698499245</v>
+        <v>0.23499067460787587</v>
       </c>
       <c r="D151">
-        <v>0.17159215963498228</v>
+        <v>0.11371276031454064</v>
       </c>
       <c r="E151">
-        <v>0.1034956225101029</v>
+        <v>0.041441801686252062</v>
       </c>
       <c r="F151">
-        <v>0.20912592343663272</v>
+        <v>0.24363167561674218</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>151</v>
+      <c r="A152" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B152">
-        <v>0.26354641725761024</v>
+        <v>0.27048796854459478</v>
       </c>
       <c r="C152">
-        <v>0.33390500199841744</v>
+        <v>0.43946735987125307</v>
       </c>
       <c r="D152">
-        <v>0.15445950519725235</v>
+        <v>0.050350138570189412</v>
       </c>
       <c r="E152">
-        <v>0.035533562171197491</v>
+        <v>0.026617109779230499</v>
       </c>
       <c r="F152">
-        <v>0.21255551337552248</v>
+        <v>0.2130774232347323</v>
       </c>
       <c r="G152">
         <v>2</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
+      <c r="A153" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B153">
-        <v>0.32073743536681798</v>
+        <v>0.29517031338121091</v>
       </c>
       <c r="C153">
-        <v>0.25581069359606579</v>
+        <v>0.28485525813198931</v>
       </c>
       <c r="D153">
-        <v>0.14893769345761801</v>
+        <v>0.21699604979845832</v>
       </c>
       <c r="E153">
-        <v>0.069176822118837883</v>
+        <v>0.049066169298418352</v>
       </c>
       <c r="F153">
-        <v>0.20533735546066051</v>
+        <v>0.15391220938992295</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
+      <c r="A154" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B154">
-        <v>0.0032173999060547825</v>
+        <v>0.32933618446643964</v>
       </c>
       <c r="C154">
-        <v>0.001601189861855621</v>
+        <v>0.39893610093588255</v>
       </c>
       <c r="D154">
-        <v>0.94264188155205364</v>
+        <v>0.069229077519349383</v>
       </c>
       <c r="E154">
-        <v>0.001215655576447233</v>
+        <v>0.041817308279987579</v>
       </c>
       <c r="F154">
-        <v>0.051323873103588817</v>
+        <v>0.16068132879834074</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
+      <c r="A155" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B155">
-        <v>0.31730434897011056</v>
+        <v>0.34945624852477797</v>
       </c>
       <c r="C155">
-        <v>0.34653303676580066</v>
+        <v>0.19069774593211181</v>
       </c>
       <c r="D155">
-        <v>0.15711954021384353</v>
+        <v>0.16845888973151649</v>
       </c>
       <c r="E155">
-        <v>0.056092188442005454</v>
+        <v>0.062541031357284949</v>
       </c>
       <c r="F155">
-        <v>0.12295088560823993</v>
+        <v>0.22884608445430873</v>
       </c>
       <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>0.12407640272686608</v>
+      </c>
+      <c r="C156">
+        <v>0.6751135550800732</v>
+      </c>
+      <c r="D156">
+        <v>0.01635474353724653</v>
+      </c>
+      <c r="E156">
+        <v>0.0099133421517158832</v>
+      </c>
+      <c r="F156">
+        <v>0.17454195650409837</v>
+      </c>
+      <c r="G156">
         <v>2</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>0.36622308777458923</v>
-      </c>
-      <c r="C156">
-        <v>0.23499067460787587</v>
-      </c>
-      <c r="D156">
-        <v>0.11371276031454064</v>
-      </c>
-      <c r="E156">
-        <v>0.041441801686252062</v>
-      </c>
-      <c r="F156">
-        <v>0.24363167561674218</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
+      <c r="A157" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B157">
-        <v>0.27048796854459478</v>
+        <v>0.26161660172769663</v>
       </c>
       <c r="C157">
-        <v>0.43946735987125307</v>
+        <v>0.33487494296099479</v>
       </c>
       <c r="D157">
-        <v>0.050350138570189412</v>
+        <v>0.17768696636180289</v>
       </c>
       <c r="E157">
-        <v>0.026617109779230499</v>
+        <v>0.019520091564747953</v>
       </c>
       <c r="F157">
-        <v>0.2130774232347323</v>
+        <v>0.20630139738475761</v>
       </c>
       <c r="G157">
         <v>2</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
+      <c r="A158" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B158">
-        <v>0.29517031338121091</v>
+        <v>0.32141116335073699</v>
       </c>
       <c r="C158">
-        <v>0.28485525813198931</v>
+        <v>0.14654131778754487</v>
       </c>
       <c r="D158">
-        <v>0.21699604979845832</v>
+        <v>0.30159179397671859</v>
       </c>
       <c r="E158">
-        <v>0.049066169298418352</v>
+        <v>0.044584396016336895</v>
       </c>
       <c r="F158">
-        <v>0.15391220938992295</v>
+        <v>0.18587132886866273</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
+      <c r="A159" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B159">
-        <v>0.32933618446643964</v>
+        <v>0.33378202885742531</v>
       </c>
       <c r="C159">
-        <v>0.39893610093588255</v>
+        <v>0.25598087898537614</v>
       </c>
       <c r="D159">
-        <v>0.069229077519349383</v>
+        <v>0.17941779450912684</v>
       </c>
       <c r="E159">
-        <v>0.041817308279987579</v>
+        <v>0.043889403250208424</v>
       </c>
       <c r="F159">
-        <v>0.16068132879834074</v>
+        <v>0.1869298943978632</v>
       </c>
       <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>0.34310159743328983</v>
+      </c>
+      <c r="C160">
+        <v>0.17268469698499245</v>
+      </c>
+      <c r="D160">
+        <v>0.17159215963498228</v>
+      </c>
+      <c r="E160">
+        <v>0.1034956225101029</v>
+      </c>
+      <c r="F160">
+        <v>0.20912592343663272</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161">
+        <v>0.37009619292080703</v>
+      </c>
+      <c r="C161">
+        <v>0.2260741054877399</v>
+      </c>
+      <c r="D161">
+        <v>0.15992509879488589</v>
+      </c>
+      <c r="E161">
+        <v>0.042457129156242598</v>
+      </c>
+      <c r="F161">
+        <v>0.20144747364032459</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>0.0056014188741765249</v>
+      </c>
+      <c r="C162">
+        <v>0.011305343080260962</v>
+      </c>
+      <c r="D162">
+        <v>0.87803783978547068</v>
+      </c>
+      <c r="E162">
+        <v>0.0096512721578622656</v>
+      </c>
+      <c r="F162">
+        <v>0.095404126102229536</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>0.31210095180351433</v>
+      </c>
+      <c r="C163">
+        <v>0.31466855978981639</v>
+      </c>
+      <c r="D163">
+        <v>0.13906916249056839</v>
+      </c>
+      <c r="E163">
+        <v>0.052908432470238985</v>
+      </c>
+      <c r="F163">
+        <v>0.18125289344586182</v>
+      </c>
+      <c r="G163">
         <v>2</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <v>0.34945624852477797</v>
-      </c>
-      <c r="C160">
-        <v>0.19069774593211181</v>
-      </c>
-      <c r="D160">
-        <v>0.16845888973151649</v>
-      </c>
-      <c r="E160">
-        <v>0.062541031357284949</v>
-      </c>
-      <c r="F160">
-        <v>0.22884608445430873</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>0.12407640272686608</v>
-      </c>
-      <c r="C161">
-        <v>0.6751135550800732</v>
-      </c>
-      <c r="D161">
-        <v>0.01635474353724653</v>
-      </c>
-      <c r="E161">
-        <v>0.0099133421517158832</v>
-      </c>
-      <c r="F161">
-        <v>0.17454195650409837</v>
-      </c>
-      <c r="G161">
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
+        <v>0.262224839764027</v>
+      </c>
+      <c r="C164">
+        <v>0.32097487418418996</v>
+      </c>
+      <c r="D164">
+        <v>0.076261630838994135</v>
+      </c>
+      <c r="E164">
+        <v>0.073747208890325724</v>
+      </c>
+      <c r="F164">
+        <v>0.26679144632246327</v>
+      </c>
+      <c r="G164">
         <v>2</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <v>0.26161660172769663</v>
-      </c>
-      <c r="C162">
-        <v>0.33487494296099479</v>
-      </c>
-      <c r="D162">
-        <v>0.17768696636180289</v>
-      </c>
-      <c r="E162">
-        <v>0.019520091564747953</v>
-      </c>
-      <c r="F162">
-        <v>0.20630139738475761</v>
-      </c>
-      <c r="G162">
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>0.3105760465086646</v>
+      </c>
+      <c r="C165">
+        <v>0.10237730791888604</v>
+      </c>
+      <c r="D165">
+        <v>0.27118020904697987</v>
+      </c>
+      <c r="E165">
+        <v>0.1022652409519649</v>
+      </c>
+      <c r="F165">
+        <v>0.21360119557350463</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>0.32766570657603949</v>
+      </c>
+      <c r="C166">
+        <v>0.33641061615477674</v>
+      </c>
+      <c r="D166">
+        <v>0.12777913449073539</v>
+      </c>
+      <c r="E166">
+        <v>0.070830873665149688</v>
+      </c>
+      <c r="F166">
+        <v>0.13731366911329884</v>
+      </c>
+      <c r="G166">
         <v>2</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>0.32141116335073699</v>
-      </c>
-      <c r="C163">
-        <v>0.14654131778754487</v>
-      </c>
-      <c r="D163">
-        <v>0.30159179397671859</v>
-      </c>
-      <c r="E163">
-        <v>0.044584396016336895</v>
-      </c>
-      <c r="F163">
-        <v>0.18587132886866273</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <v>0.33378202885742531</v>
-      </c>
-      <c r="C164">
-        <v>0.25598087898537614</v>
-      </c>
-      <c r="D164">
-        <v>0.17941779450912684</v>
-      </c>
-      <c r="E164">
-        <v>0.043889403250208424</v>
-      </c>
-      <c r="F164">
-        <v>0.1869298943978632</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <v>0.34310159743328983</v>
-      </c>
-      <c r="C165">
-        <v>0.17268469698499245</v>
-      </c>
-      <c r="D165">
-        <v>0.17159215963498228</v>
-      </c>
-      <c r="E165">
-        <v>0.1034956225101029</v>
-      </c>
-      <c r="F165">
-        <v>0.20912592343663272</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <v>0.37009619292080703</v>
-      </c>
-      <c r="C166">
-        <v>0.2260741054877399</v>
-      </c>
-      <c r="D166">
-        <v>0.15992509879488589</v>
-      </c>
-      <c r="E166">
-        <v>0.042457129156242598</v>
-      </c>
-      <c r="F166">
-        <v>0.20144747364032459</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-    </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
+      <c r="A167" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0056014188741765249</v>
+        <v>0.018599985938363699</v>
       </c>
       <c r="C167">
-        <v>0.011305343080260962</v>
+        <v>0.013401274674325685</v>
       </c>
       <c r="D167">
-        <v>0.87803783978547068</v>
+        <v>0.89796728154632144</v>
       </c>
       <c r="E167">
-        <v>0.0096512721578622656</v>
+        <v>0.029072973924820073</v>
       </c>
       <c r="F167">
-        <v>0.095404126102229536</v>
+        <v>0.040958483916168985</v>
       </c>
       <c r="G167">
         <v>3</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
+      <c r="A168" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B168">
-        <v>0.31901379966224119</v>
+        <v>0.30236149205588986</v>
       </c>
       <c r="C168">
-        <v>0.4301850175641927</v>
+        <v>0.33064514844330417</v>
       </c>
       <c r="D168">
-        <v>0.11479868791761857</v>
+        <v>0.13085018091101744</v>
       </c>
       <c r="E168">
-        <v>0.062712165740148013</v>
+        <v>0.0098049884446550738</v>
       </c>
       <c r="F168">
-        <v>0.073290329115799496</v>
+        <v>0.2263381901451334</v>
       </c>
       <c r="G168">
         <v>2</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
+      <c r="A169" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B169">
-        <v>0.31210095180351433</v>
+        <v>0.31187380348122273</v>
       </c>
       <c r="C169">
-        <v>0.31466855978981639</v>
+        <v>0.35260824816603031</v>
       </c>
       <c r="D169">
-        <v>0.13906916249056839</v>
+        <v>0.11499337993759498</v>
       </c>
       <c r="E169">
-        <v>0.052908432470238985</v>
+        <v>0.079810883487648726</v>
       </c>
       <c r="F169">
-        <v>0.18125289344586182</v>
+        <v>0.14071368492750333</v>
       </c>
       <c r="G169">
         <v>2</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
+      <c r="A170" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B170">
-        <v>0.262224839764027</v>
+        <v>0.33561290065570198</v>
       </c>
       <c r="C170">
-        <v>0.32097487418418996</v>
+        <v>0.25568522509729058</v>
       </c>
       <c r="D170">
-        <v>0.076261630838994135</v>
+        <v>0.22204009882675504</v>
       </c>
       <c r="E170">
-        <v>0.073747208890325724</v>
+        <v>0.029951744087366117</v>
       </c>
       <c r="F170">
-        <v>0.26679144632246327</v>
+        <v>0.15671003133288627</v>
       </c>
       <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171">
+        <v>0.31810544155158865</v>
+      </c>
+      <c r="C171">
+        <v>0.24991845471985583</v>
+      </c>
+      <c r="D171">
+        <v>0.2130980068301272</v>
+      </c>
+      <c r="E171">
+        <v>0.048758715491666223</v>
+      </c>
+      <c r="F171">
+        <v>0.17011938140676197</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172">
+        <v>0.35931272740033127</v>
+      </c>
+      <c r="C172">
+        <v>0.26560474932688755</v>
+      </c>
+      <c r="D172">
+        <v>0.13206158699926324</v>
+      </c>
+      <c r="E172">
+        <v>0.050926712911831991</v>
+      </c>
+      <c r="F172">
+        <v>0.19209422336168594</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173">
+        <v>0.34809879863865006</v>
+      </c>
+      <c r="C173">
+        <v>0.18116393374658554</v>
+      </c>
+      <c r="D173">
+        <v>0.18974028064820511</v>
+      </c>
+      <c r="E173">
+        <v>0.084184325108919739</v>
+      </c>
+      <c r="F173">
+        <v>0.19681266185763968</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174">
+        <v>0.36018381330292443</v>
+      </c>
+      <c r="C174">
+        <v>0.17257197932891435</v>
+      </c>
+      <c r="D174">
+        <v>0.26582986670335856</v>
+      </c>
+      <c r="E174">
+        <v>0.069811172009688102</v>
+      </c>
+      <c r="F174">
+        <v>0.13160316865511462</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175">
+        <v>0.31810544155158865</v>
+      </c>
+      <c r="C175">
+        <v>0.24991845471985583</v>
+      </c>
+      <c r="D175">
+        <v>0.2130980068301272</v>
+      </c>
+      <c r="E175">
+        <v>0.048758715491666223</v>
+      </c>
+      <c r="F175">
+        <v>0.17011938140676197</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <v>0.33759942498735007</v>
+      </c>
+      <c r="C176">
+        <v>0.15535141824715579</v>
+      </c>
+      <c r="D176">
+        <v>0.26885048496410252</v>
+      </c>
+      <c r="E176">
+        <v>0.060713524782960604</v>
+      </c>
+      <c r="F176">
+        <v>0.17748514701843104</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177">
+        <v>0.02410207006129143</v>
+      </c>
+      <c r="C177">
+        <v>0.19150300254377797</v>
+      </c>
+      <c r="D177">
+        <v>0.11485191314298593</v>
+      </c>
+      <c r="E177">
+        <v>0.040798997628421159</v>
+      </c>
+      <c r="F177">
+        <v>0.62874401662352364</v>
+      </c>
+      <c r="G177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178">
+        <v>0.0019734335799518853</v>
+      </c>
+      <c r="C178">
+        <v>0.000252501616279825</v>
+      </c>
+      <c r="D178">
+        <v>0.97928133973172016</v>
+      </c>
+      <c r="E178">
+        <v>0.003244633441154633</v>
+      </c>
+      <c r="F178">
+        <v>0.015248091630893365</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179">
+        <v>0.2525019144374343</v>
+      </c>
+      <c r="C179">
+        <v>0.39509779489539343</v>
+      </c>
+      <c r="D179">
+        <v>0.073396774099329196</v>
+      </c>
+      <c r="E179">
+        <v>0.030873313782448814</v>
+      </c>
+      <c r="F179">
+        <v>0.24813020278539405</v>
+      </c>
+      <c r="G179">
         <v>2</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>0.3105760465086646</v>
-      </c>
-      <c r="C171">
-        <v>0.10237730791888604</v>
-      </c>
-      <c r="D171">
-        <v>0.27118020904697987</v>
-      </c>
-      <c r="E171">
-        <v>0.1022652409519649</v>
-      </c>
-      <c r="F171">
-        <v>0.21360119557350463</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <v>0.32766570657603949</v>
-      </c>
-      <c r="C172">
-        <v>0.33641061615477674</v>
-      </c>
-      <c r="D172">
-        <v>0.12777913449073539</v>
-      </c>
-      <c r="E172">
-        <v>0.070830873665149688</v>
-      </c>
-      <c r="F172">
-        <v>0.13731366911329884</v>
-      </c>
-      <c r="G172">
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180">
+        <v>0.0031598639104987039</v>
+      </c>
+      <c r="C180">
+        <v>7.5842238394566955e-05</v>
+      </c>
+      <c r="D180">
+        <v>0.96717616588205158</v>
+      </c>
+      <c r="E180">
+        <v>0.0041237380455179844</v>
+      </c>
+      <c r="F180">
+        <v>0.025464389923537001</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181">
+        <v>0.19660614925344735</v>
+      </c>
+      <c r="C181">
+        <v>0.6077714851412771</v>
+      </c>
+      <c r="D181">
+        <v>0.074860758988265733</v>
+      </c>
+      <c r="E181">
+        <v>0.053550685728356549</v>
+      </c>
+      <c r="F181">
+        <v>0.067210920888653408</v>
+      </c>
+      <c r="G181">
         <v>2</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <v>0.018599985938363699</v>
-      </c>
-      <c r="C173">
-        <v>0.013401274674325685</v>
-      </c>
-      <c r="D173">
-        <v>0.89796728154632144</v>
-      </c>
-      <c r="E173">
-        <v>0.029072973924820073</v>
-      </c>
-      <c r="F173">
-        <v>0.040958483916168985</v>
-      </c>
-      <c r="G173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <v>0.30236149205588986</v>
-      </c>
-      <c r="C174">
-        <v>0.33064514844330417</v>
-      </c>
-      <c r="D174">
-        <v>0.13085018091101744</v>
-      </c>
-      <c r="E174">
-        <v>0.0098049884446550738</v>
-      </c>
-      <c r="F174">
-        <v>0.2263381901451334</v>
-      </c>
-      <c r="G174">
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182">
+        <v>0.0035208622516157057</v>
+      </c>
+      <c r="C182">
+        <v>0.00031451869690302348</v>
+      </c>
+      <c r="D182">
+        <v>0.94512855389048511</v>
+      </c>
+      <c r="E182">
+        <v>0.0069077872120292313</v>
+      </c>
+      <c r="F182">
+        <v>0.044128277948966843</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183">
+        <v>0.33926943491384315</v>
+      </c>
+      <c r="C183">
+        <v>0.1962442113481131</v>
+      </c>
+      <c r="D183">
+        <v>0.20802323024344882</v>
+      </c>
+      <c r="E183">
+        <v>0.083691635272891488</v>
+      </c>
+      <c r="F183">
+        <v>0.17277148822170335</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184">
+        <v>0.3640557023289368</v>
+      </c>
+      <c r="C184">
+        <v>0.22403253794411335</v>
+      </c>
+      <c r="D184">
+        <v>0.19652881795080496</v>
+      </c>
+      <c r="E184">
+        <v>0.040535179667786601</v>
+      </c>
+      <c r="F184">
+        <v>0.17484776210835826</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185">
+        <v>0.0017342449045195719</v>
+      </c>
+      <c r="C185">
+        <v>9.0232173472784368e-05</v>
+      </c>
+      <c r="D185">
+        <v>0.96599208404094483</v>
+      </c>
+      <c r="E185">
+        <v>0.010772786322688724</v>
+      </c>
+      <c r="F185">
+        <v>0.021410652558374176</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186">
+        <v>0.31654167874599559</v>
+      </c>
+      <c r="C186">
+        <v>0.12832263857489323</v>
+      </c>
+      <c r="D186">
+        <v>0.19941140891042797</v>
+      </c>
+      <c r="E186">
+        <v>0.052190870153238068</v>
+      </c>
+      <c r="F186">
+        <v>0.30353340361544523</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187">
+        <v>0.35503067129342231</v>
+      </c>
+      <c r="C187">
+        <v>0.21134014162472659</v>
+      </c>
+      <c r="D187">
+        <v>0.15671954082041659</v>
+      </c>
+      <c r="E187">
+        <v>0.066529706373227596</v>
+      </c>
+      <c r="F187">
+        <v>0.2103799398882068</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188">
+        <v>0.34770823142478918</v>
+      </c>
+      <c r="C188">
+        <v>0.21990177492303073</v>
+      </c>
+      <c r="D188">
+        <v>0.083670421625824373</v>
+      </c>
+      <c r="E188">
+        <v>0.070560917951266913</v>
+      </c>
+      <c r="F188">
+        <v>0.27815865407508883</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189">
+        <v>0.32974105781603469</v>
+      </c>
+      <c r="C189">
+        <v>0.36151217568317445</v>
+      </c>
+      <c r="D189">
+        <v>0.093786164758378227</v>
+      </c>
+      <c r="E189">
+        <v>0.033567368291118713</v>
+      </c>
+      <c r="F189">
+        <v>0.18139323345129399</v>
+      </c>
+      <c r="G189">
         <v>2</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <v>0.31187380348122273</v>
-      </c>
-      <c r="C175">
-        <v>0.35260824816603031</v>
-      </c>
-      <c r="D175">
-        <v>0.11499337993759498</v>
-      </c>
-      <c r="E175">
-        <v>0.079810883487648726</v>
-      </c>
-      <c r="F175">
-        <v>0.14071368492750333</v>
-      </c>
-      <c r="G175">
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190">
+        <v>0.33017226633467106</v>
+      </c>
+      <c r="C190">
+        <v>0.36142372282730012</v>
+      </c>
+      <c r="D190">
+        <v>0.093932527585210673</v>
+      </c>
+      <c r="E190">
+        <v>0.033668344021123869</v>
+      </c>
+      <c r="F190">
+        <v>0.18080313923169414</v>
+      </c>
+      <c r="G190">
         <v>2</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <v>0.26133495641205395</v>
-      </c>
-      <c r="C176">
-        <v>0.3105127511738453</v>
-      </c>
-      <c r="D176">
-        <v>0.15523856018602272</v>
-      </c>
-      <c r="E176">
-        <v>0.040684311957017973</v>
-      </c>
-      <c r="F176">
-        <v>0.23222942027106</v>
-      </c>
-      <c r="G176">
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191">
+        <v>0.31265657215768483</v>
+      </c>
+      <c r="C191">
+        <v>0.13176553890165699</v>
+      </c>
+      <c r="D191">
+        <v>0.36858924147934574</v>
+      </c>
+      <c r="E191">
+        <v>0.0329063220026952</v>
+      </c>
+      <c r="F191">
+        <v>0.15408232545861728</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192">
+        <v>0.31447807203593847</v>
+      </c>
+      <c r="C192">
+        <v>0.09095521684269392</v>
+      </c>
+      <c r="D192">
+        <v>0.26750157526371193</v>
+      </c>
+      <c r="E192">
+        <v>0.073222598557253257</v>
+      </c>
+      <c r="F192">
+        <v>0.25384253730040246</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193">
+        <v>0.31358084691751309</v>
+      </c>
+      <c r="C193">
+        <v>0.31593591864232173</v>
+      </c>
+      <c r="D193">
+        <v>0.11484033034337712</v>
+      </c>
+      <c r="E193">
+        <v>0.07213194334039312</v>
+      </c>
+      <c r="F193">
+        <v>0.18351096075639498</v>
+      </c>
+      <c r="G193">
         <v>2</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>0.33561290065570198</v>
-      </c>
-      <c r="C177">
-        <v>0.25568522509729058</v>
-      </c>
-      <c r="D177">
-        <v>0.22204009882675504</v>
-      </c>
-      <c r="E177">
-        <v>0.029951744087366117</v>
-      </c>
-      <c r="F177">
-        <v>0.15671003133288627</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <v>0.31810544155158865</v>
-      </c>
-      <c r="C178">
-        <v>0.24991845471985583</v>
-      </c>
-      <c r="D178">
-        <v>0.2130980068301272</v>
-      </c>
-      <c r="E178">
-        <v>0.048758715491666223</v>
-      </c>
-      <c r="F178">
-        <v>0.17011938140676197</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179">
-        <v>0.35931272740033127</v>
-      </c>
-      <c r="C179">
-        <v>0.26560474932688755</v>
-      </c>
-      <c r="D179">
-        <v>0.13206158699926324</v>
-      </c>
-      <c r="E179">
-        <v>0.050926712911831991</v>
-      </c>
-      <c r="F179">
-        <v>0.19209422336168594</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180">
-        <v>0.34809879863865006</v>
-      </c>
-      <c r="C180">
-        <v>0.18116393374658554</v>
-      </c>
-      <c r="D180">
-        <v>0.18974028064820511</v>
-      </c>
-      <c r="E180">
-        <v>0.084184325108919739</v>
-      </c>
-      <c r="F180">
-        <v>0.19681266185763968</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <v>0.36018381330292443</v>
-      </c>
-      <c r="C181">
-        <v>0.17257197932891435</v>
-      </c>
-      <c r="D181">
-        <v>0.26582986670335856</v>
-      </c>
-      <c r="E181">
-        <v>0.069811172009688102</v>
-      </c>
-      <c r="F181">
-        <v>0.13160316865511462</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B182">
-        <v>0.31810544155158865</v>
-      </c>
-      <c r="C182">
-        <v>0.24991845471985583</v>
-      </c>
-      <c r="D182">
-        <v>0.2130980068301272</v>
-      </c>
-      <c r="E182">
-        <v>0.048758715491666223</v>
-      </c>
-      <c r="F182">
-        <v>0.17011938140676197</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B183">
-        <v>0.33759942498735007</v>
-      </c>
-      <c r="C183">
-        <v>0.15535141824715579</v>
-      </c>
-      <c r="D183">
-        <v>0.26885048496410252</v>
-      </c>
-      <c r="E183">
-        <v>0.060713524782960604</v>
-      </c>
-      <c r="F183">
-        <v>0.17748514701843104</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B184">
-        <v>0.02410207006129143</v>
-      </c>
-      <c r="C184">
-        <v>0.19150300254377797</v>
-      </c>
-      <c r="D184">
-        <v>0.11485191314298593</v>
-      </c>
-      <c r="E184">
-        <v>0.040798997628421159</v>
-      </c>
-      <c r="F184">
-        <v>0.62874401662352364</v>
-      </c>
-      <c r="G184">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185">
-        <v>0.0019734335799518853</v>
-      </c>
-      <c r="C185">
-        <v>0.000252501616279825</v>
-      </c>
-      <c r="D185">
-        <v>0.97928133973172016</v>
-      </c>
-      <c r="E185">
-        <v>0.003244633441154633</v>
-      </c>
-      <c r="F185">
-        <v>0.015248091630893365</v>
-      </c>
-      <c r="G185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B186">
-        <v>0.2525019144374343</v>
-      </c>
-      <c r="C186">
-        <v>0.39509779489539343</v>
-      </c>
-      <c r="D186">
-        <v>0.073396774099329196</v>
-      </c>
-      <c r="E186">
-        <v>0.030873313782448814</v>
-      </c>
-      <c r="F186">
-        <v>0.24813020278539405</v>
-      </c>
-      <c r="G186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B187">
-        <v>0.0031598639104987039</v>
-      </c>
-      <c r="C187">
-        <v>7.5842238394566955e-05</v>
-      </c>
-      <c r="D187">
-        <v>0.96717616588205158</v>
-      </c>
-      <c r="E187">
-        <v>0.0041237380455179844</v>
-      </c>
-      <c r="F187">
-        <v>0.025464389923537001</v>
-      </c>
-      <c r="G187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188">
-        <v>0.19660614925344735</v>
-      </c>
-      <c r="C188">
-        <v>0.6077714851412771</v>
-      </c>
-      <c r="D188">
-        <v>0.074860758988265733</v>
-      </c>
-      <c r="E188">
-        <v>0.053550685728356549</v>
-      </c>
-      <c r="F188">
-        <v>0.067210920888653408</v>
-      </c>
-      <c r="G188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189">
-        <v>0.0035208622516157057</v>
-      </c>
-      <c r="C189">
-        <v>0.00031451869690302348</v>
-      </c>
-      <c r="D189">
-        <v>0.94512855389048511</v>
-      </c>
-      <c r="E189">
-        <v>0.0069077872120292313</v>
-      </c>
-      <c r="F189">
-        <v>0.044128277948966843</v>
-      </c>
-      <c r="G189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190">
-        <v>0.33926943491384315</v>
-      </c>
-      <c r="C190">
-        <v>0.1962442113481131</v>
-      </c>
-      <c r="D190">
-        <v>0.20802323024344882</v>
-      </c>
-      <c r="E190">
-        <v>0.083691635272891488</v>
-      </c>
-      <c r="F190">
-        <v>0.17277148822170335</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191">
-        <v>0.3640557023289368</v>
-      </c>
-      <c r="C191">
-        <v>0.22403253794411335</v>
-      </c>
-      <c r="D191">
-        <v>0.19652881795080496</v>
-      </c>
-      <c r="E191">
-        <v>0.040535179667786601</v>
-      </c>
-      <c r="F191">
-        <v>0.17484776210835826</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192">
-        <v>0.0017342449045195719</v>
-      </c>
-      <c r="C192">
-        <v>9.0232173472784368e-05</v>
-      </c>
-      <c r="D192">
-        <v>0.96599208404094483</v>
-      </c>
-      <c r="E192">
-        <v>0.010772786322688724</v>
-      </c>
-      <c r="F192">
-        <v>0.021410652558374176</v>
-      </c>
-      <c r="G192">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193">
-        <v>0.31654167874599559</v>
-      </c>
-      <c r="C193">
-        <v>0.12832263857489323</v>
-      </c>
-      <c r="D193">
-        <v>0.19941140891042797</v>
-      </c>
-      <c r="E193">
-        <v>0.052190870153238068</v>
-      </c>
-      <c r="F193">
-        <v>0.30353340361544523</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-    </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
+      <c r="A194" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B194">
-        <v>0.35503067129342231</v>
+        <v>0.30992818920043513</v>
       </c>
       <c r="C194">
-        <v>0.21134014162472659</v>
+        <v>0.2815025525403656</v>
       </c>
       <c r="D194">
-        <v>0.15671954082041659</v>
+        <v>0.16553287844469211</v>
       </c>
       <c r="E194">
-        <v>0.066529706373227596</v>
+        <v>0.097734450676931414</v>
       </c>
       <c r="F194">
-        <v>0.2103799398882068</v>
+        <v>0.1453019291375757</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>194</v>
+      <c r="A195" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B195">
-        <v>0.34770823142478918</v>
+        <v>0.35873375434765503</v>
       </c>
       <c r="C195">
-        <v>0.21990177492303073</v>
+        <v>0.22650914297640934</v>
       </c>
       <c r="D195">
-        <v>0.083670421625824373</v>
+        <v>0.20272911550899766</v>
       </c>
       <c r="E195">
-        <v>0.070560917951266913</v>
+        <v>0.046977712426447188</v>
       </c>
       <c r="F195">
-        <v>0.27815865407508883</v>
+        <v>0.1650502747404908</v>
       </c>
       <c r="G195">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
+      <c r="A196" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B196">
-        <v>0.32974105781603469</v>
+        <v>0.36145746083097369</v>
       </c>
       <c r="C196">
-        <v>0.36151217568317445</v>
+        <v>0.21683934237036781</v>
       </c>
       <c r="D196">
-        <v>0.093786164758378227</v>
+        <v>0.16343789933099626</v>
       </c>
       <c r="E196">
-        <v>0.033567368291118713</v>
+        <v>0.10436908364618795</v>
       </c>
       <c r="F196">
-        <v>0.18139323345129399</v>
+        <v>0.15389621382147436</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>196</v>
+      <c r="A197" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B197">
-        <v>0.33017226633467106</v>
+        <v>0.33230466763284711</v>
       </c>
       <c r="C197">
-        <v>0.36142372282730012</v>
+        <v>0.22996323759426496</v>
       </c>
       <c r="D197">
-        <v>0.093932527585210673</v>
+        <v>0.12725637702055873</v>
       </c>
       <c r="E197">
-        <v>0.033668344021123869</v>
+        <v>0.1496175624172027</v>
       </c>
       <c r="F197">
-        <v>0.18080313923169414</v>
+        <v>0.16085815533512646</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>197</v>
+      <c r="A198" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B198">
-        <v>0.31265657215768483</v>
+        <v>0.0027343296830485407</v>
       </c>
       <c r="C198">
-        <v>0.13176553890165699</v>
+        <v>0.00077808435379135696</v>
       </c>
       <c r="D198">
-        <v>0.36858924147934574</v>
+        <v>0.91914265898107439</v>
       </c>
       <c r="E198">
-        <v>0.0329063220026952</v>
+        <v>0.0086459056394283858</v>
       </c>
       <c r="F198">
-        <v>0.15408232545861728</v>
+        <v>0.068699021342657207</v>
       </c>
       <c r="G198">
         <v>3</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>198</v>
+      <c r="A199" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B199">
-        <v>0.31447807203593847</v>
+        <v>0.00419005301920055</v>
       </c>
       <c r="C199">
-        <v>0.09095521684269392</v>
+        <v>0.00074375349551499697</v>
       </c>
       <c r="D199">
-        <v>0.26750157526371193</v>
+        <v>0.92462380983030501</v>
       </c>
       <c r="E199">
-        <v>0.073222598557253257</v>
+        <v>0.0058152218108774249</v>
       </c>
       <c r="F199">
-        <v>0.25384253730040246</v>
+        <v>0.064627161844101999</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>199</v>
+      <c r="A200" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B200">
-        <v>0.31358084691751309</v>
+        <v>0.0027343296830485407</v>
       </c>
       <c r="C200">
-        <v>0.31593591864232173</v>
+        <v>0.00077808435379135696</v>
       </c>
       <c r="D200">
-        <v>0.11484033034337712</v>
+        <v>0.91914265898107439</v>
       </c>
       <c r="E200">
-        <v>0.07213194334039312</v>
+        <v>0.0086459056394283858</v>
       </c>
       <c r="F200">
-        <v>0.18351096075639498</v>
+        <v>0.068699021342657207</v>
       </c>
       <c r="G200">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>200</v>
+      <c r="A201" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B201">
-        <v>0.30992818920043513</v>
+        <v>0.0011022300983855816</v>
       </c>
       <c r="C201">
-        <v>0.2815025525403656</v>
+        <v>2.9188411339329049e-05</v>
       </c>
       <c r="D201">
-        <v>0.16553287844469211</v>
+        <v>0.96137548724534205</v>
       </c>
       <c r="E201">
-        <v>0.097734450676931414</v>
+        <v>0.0015054621765230021</v>
       </c>
       <c r="F201">
-        <v>0.1453019291375757</v>
+        <v>0.03598763206841004</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>201</v>
+      <c r="A202" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B202">
-        <v>0.35873375434765503</v>
+        <v>0.0012310220720741047</v>
       </c>
       <c r="C202">
-        <v>0.22650914297640934</v>
+        <v>0.00015284729898408614</v>
       </c>
       <c r="D202">
-        <v>0.20272911550899766</v>
+        <v>0.96125656592362674</v>
       </c>
       <c r="E202">
-        <v>0.046977712426447188</v>
+        <v>0.0014674293767347429</v>
       </c>
       <c r="F202">
-        <v>0.1650502747404908</v>
+        <v>0.035892135328580307</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>202</v>
+      <c r="A203" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="B203">
-        <v>0.36145746083097369</v>
+        <v>0.0024584254666271759</v>
       </c>
       <c r="C203">
-        <v>0.21683934237036781</v>
+        <v>0.0023065553570703798</v>
       </c>
       <c r="D203">
-        <v>0.16343789933099626</v>
+        <v>0.95558124255652899</v>
       </c>
       <c r="E203">
-        <v>0.10436908364618795</v>
+        <v>0.0047491345319226504</v>
       </c>
       <c r="F203">
-        <v>0.15389621382147436</v>
+        <v>0.034904642087850976</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>203</v>
+      <c r="A204" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B204">
-        <v>0.33230466763284711</v>
+        <v>0.0035115718987654239</v>
       </c>
       <c r="C204">
-        <v>0.22996323759426496</v>
+        <v>0.00060589996557927942</v>
       </c>
       <c r="D204">
-        <v>0.12725637702055873</v>
+        <v>0.97003695799878675</v>
       </c>
       <c r="E204">
-        <v>0.1496175624172027</v>
+        <v>0.0028785644810978474</v>
       </c>
       <c r="F204">
-        <v>0.16085815533512646</v>
+        <v>0.0229670056557707</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>204</v>
+      <c r="A205" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B205">
-        <v>0.0027343296830485407</v>
+        <v>0.0012310220720741047</v>
       </c>
       <c r="C205">
-        <v>0.00077808435379135696</v>
+        <v>0.00015284729898408614</v>
       </c>
       <c r="D205">
-        <v>0.91914265898107439</v>
+        <v>0.96125656592362674</v>
       </c>
       <c r="E205">
-        <v>0.0086459056394283858</v>
+        <v>0.0014674293767347429</v>
       </c>
       <c r="F205">
-        <v>0.068699021342657207</v>
+        <v>0.035892135328580307</v>
       </c>
       <c r="G205">
         <v>3</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>205</v>
+      <c r="A206" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B206">
-        <v>0.00419005301920055</v>
+        <v>0.00067925767708449075</v>
       </c>
       <c r="C206">
-        <v>0.00074375349551499697</v>
+        <v>1.3069063605214736e-05</v>
       </c>
       <c r="D206">
-        <v>0.92462380983030501</v>
+        <v>0.97009012284996854</v>
       </c>
       <c r="E206">
-        <v>0.0058152218108774249</v>
+        <v>0.0011173385852781372</v>
       </c>
       <c r="F206">
-        <v>0.064627161844101999</v>
+        <v>0.02810021182406354</v>
       </c>
       <c r="G206">
         <v>3</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>206</v>
+      <c r="A207" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B207">
-        <v>0.0027343296830485407</v>
+        <v>0.0014775960936917049</v>
       </c>
       <c r="C207">
-        <v>0.00077808435379135696</v>
+        <v>4.6153310087849526e-05</v>
       </c>
       <c r="D207">
-        <v>0.91914265898107439</v>
+        <v>0.94044209651667565</v>
       </c>
       <c r="E207">
-        <v>0.0086459056394283858</v>
+        <v>0.0011421617773309262</v>
       </c>
       <c r="F207">
-        <v>0.068699021342657207</v>
+        <v>0.056891992302213819</v>
       </c>
       <c r="G207">
         <v>3</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>207</v>
+      <c r="A208" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B208">
-        <v>0.0011022300983855816</v>
+        <v>0.0014775960936917049</v>
       </c>
       <c r="C208">
-        <v>2.9188411339329049e-05</v>
+        <v>4.6153310087849526e-05</v>
       </c>
       <c r="D208">
-        <v>0.96137548724534205</v>
+        <v>0.94044209651667565</v>
       </c>
       <c r="E208">
-        <v>0.0015054621765230021</v>
+        <v>0.0011421617773309262</v>
       </c>
       <c r="F208">
-        <v>0.03598763206841004</v>
+        <v>0.056891992302213819</v>
       </c>
       <c r="G208">
         <v>3</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>208</v>
+      <c r="A209" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B209">
+        <v>0.0020060461782403028</v>
+      </c>
+      <c r="C209">
+        <v>6.2127248879742373e-05</v>
+      </c>
+      <c r="D209">
+        <v>0.97798291733828102</v>
+      </c>
+      <c r="E209">
+        <v>0.0013309523198588159</v>
+      </c>
+      <c r="F209">
+        <v>0.018617956914740188</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210">
+        <v>0.003094478830518119</v>
+      </c>
+      <c r="C210">
+        <v>0.00016281793564011901</v>
+      </c>
+      <c r="D210">
+        <v>0.97177583519493693</v>
+      </c>
+      <c r="E210">
+        <v>0.001551129596260353</v>
+      </c>
+      <c r="F210">
+        <v>0.023415738442644628</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211">
+        <v>0.0028358098393623356</v>
+      </c>
+      <c r="C211">
+        <v>0.00011912117124987816</v>
+      </c>
+      <c r="D211">
+        <v>0.92666586809803386</v>
+      </c>
+      <c r="E211">
+        <v>0.00081703748757742185</v>
+      </c>
+      <c r="F211">
+        <v>0.069562163403776536</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212">
+        <v>0.0012944598985584629</v>
+      </c>
+      <c r="C212">
+        <v>0.0001660560222813737</v>
+      </c>
+      <c r="D212">
+        <v>0.96626355384710427</v>
+      </c>
+      <c r="E212">
+        <v>0.0014495595389344819</v>
+      </c>
+      <c r="F212">
+        <v>0.030826370693121538</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213">
+        <v>0.00091571922940422257</v>
+      </c>
+      <c r="C213">
+        <v>1.4014003117353248e-05</v>
+      </c>
+      <c r="D213">
+        <v>0.97526042440776073</v>
+      </c>
+      <c r="E213">
+        <v>0.0012073295679414825</v>
+      </c>
+      <c r="F213">
+        <v>0.022602512791776205</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214">
+        <v>0.0027675221533189085</v>
+      </c>
+      <c r="C214">
+        <v>0.00036879384360005561</v>
+      </c>
+      <c r="D214">
+        <v>0.94991837655069455</v>
+      </c>
+      <c r="E214">
+        <v>0.0034501602388208375</v>
+      </c>
+      <c r="F214">
+        <v>0.04349514721356551</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215">
+        <v>0.00067925767708449075</v>
+      </c>
+      <c r="C215">
+        <v>1.3069063605214736e-05</v>
+      </c>
+      <c r="D215">
+        <v>0.97009012284996854</v>
+      </c>
+      <c r="E215">
+        <v>0.0011173385852781372</v>
+      </c>
+      <c r="F215">
+        <v>0.02810021182406354</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216">
+        <v>0.0030632310699880536</v>
+      </c>
+      <c r="C216">
+        <v>0.0080299828958727767</v>
+      </c>
+      <c r="D216">
+        <v>0.82554282656682376</v>
+      </c>
+      <c r="E216">
+        <v>0.0029515202049333628</v>
+      </c>
+      <c r="F216">
+        <v>0.16041243926238205</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217">
         <v>0.0012310220720741047</v>
       </c>
-      <c r="C209">
+      <c r="C217">
         <v>0.00015284729898408614</v>
       </c>
-      <c r="D209">
+      <c r="D217">
         <v>0.96125656592362674</v>
       </c>
-      <c r="E209">
+      <c r="E217">
         <v>0.0014674293767347429</v>
       </c>
-      <c r="F209">
+      <c r="F217">
         <v>0.035892135328580307</v>
       </c>
-      <c r="G209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210">
-        <v>0.0024584254666271759</v>
-      </c>
-      <c r="C210">
-        <v>0.0023065553570703798</v>
-      </c>
-      <c r="D210">
-        <v>0.95558124255652899</v>
-      </c>
-      <c r="E210">
-        <v>0.0047491345319226504</v>
-      </c>
-      <c r="F210">
-        <v>0.034904642087850976</v>
-      </c>
-      <c r="G210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211">
-        <v>0.0035115718987654239</v>
-      </c>
-      <c r="C211">
-        <v>0.00060589996557927942</v>
-      </c>
-      <c r="D211">
-        <v>0.97003695799878675</v>
-      </c>
-      <c r="E211">
-        <v>0.0028785644810978474</v>
-      </c>
-      <c r="F211">
-        <v>0.0229670056557707</v>
-      </c>
-      <c r="G211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212">
-        <v>0.0012310220720741047</v>
-      </c>
-      <c r="C212">
-        <v>0.00015284729898408614</v>
-      </c>
-      <c r="D212">
-        <v>0.96125656592362674</v>
-      </c>
-      <c r="E212">
-        <v>0.0014674293767347429</v>
-      </c>
-      <c r="F212">
-        <v>0.035892135328580307</v>
-      </c>
-      <c r="G212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213">
-        <v>0.00067925767708449075</v>
-      </c>
-      <c r="C213">
-        <v>1.3069063605214736e-05</v>
-      </c>
-      <c r="D213">
-        <v>0.97009012284996854</v>
-      </c>
-      <c r="E213">
-        <v>0.0011173385852781372</v>
-      </c>
-      <c r="F213">
-        <v>0.02810021182406354</v>
-      </c>
-      <c r="G213">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B214">
-        <v>0.0014775960936917049</v>
-      </c>
-      <c r="C214">
-        <v>4.6153310087849526e-05</v>
-      </c>
-      <c r="D214">
-        <v>0.94044209651667565</v>
-      </c>
-      <c r="E214">
-        <v>0.0011421617773309262</v>
-      </c>
-      <c r="F214">
-        <v>0.056891992302213819</v>
-      </c>
-      <c r="G214">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215">
-        <v>0.0014775960936917049</v>
-      </c>
-      <c r="C215">
-        <v>4.6153310087849526e-05</v>
-      </c>
-      <c r="D215">
-        <v>0.94044209651667565</v>
-      </c>
-      <c r="E215">
-        <v>0.0011421617773309262</v>
-      </c>
-      <c r="F215">
-        <v>0.056891992302213819</v>
-      </c>
-      <c r="G215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B216">
-        <v>0.0020060461782403028</v>
-      </c>
-      <c r="C216">
-        <v>6.2127248879742373e-05</v>
-      </c>
-      <c r="D216">
-        <v>0.97798291733828102</v>
-      </c>
-      <c r="E216">
-        <v>0.0013309523198588159</v>
-      </c>
-      <c r="F216">
-        <v>0.018617956914740188</v>
-      </c>
-      <c r="G216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217">
-        <v>0.003094478830518119</v>
-      </c>
-      <c r="C217">
-        <v>0.00016281793564011901</v>
-      </c>
-      <c r="D217">
-        <v>0.97177583519493693</v>
-      </c>
-      <c r="E217">
-        <v>0.001551129596260353</v>
-      </c>
-      <c r="F217">
-        <v>0.023415738442644628</v>
-      </c>
       <c r="G217">
         <v>3</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
-        <v>217</v>
+      <c r="A218" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B218">
         <v>0.0028358098393623356</v>
@@ -6000,238 +6004,238 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
-        <v>218</v>
+      <c r="A219" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B219">
-        <v>0.0012944598985584629</v>
+        <v>0.0014180882227568846</v>
       </c>
       <c r="C219">
-        <v>0.0001660560222813737</v>
+        <v>8.9321143528374184e-05</v>
       </c>
       <c r="D219">
-        <v>0.96626355384710427</v>
+        <v>0.98020819001063397</v>
       </c>
       <c r="E219">
-        <v>0.0014495595389344819</v>
+        <v>0.0025932300870845316</v>
       </c>
       <c r="F219">
-        <v>0.030826370693121538</v>
+        <v>0.015691170535996109</v>
       </c>
       <c r="G219">
         <v>3</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>219</v>
+      <c r="A220" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B220">
-        <v>0.00091571922940422257</v>
+        <v>0.0028358098393623356</v>
       </c>
       <c r="C220">
-        <v>1.4014003117353248e-05</v>
+        <v>0.00011912117124987816</v>
       </c>
       <c r="D220">
-        <v>0.97526042440776073</v>
+        <v>0.92666586809803386</v>
       </c>
       <c r="E220">
-        <v>0.0012073295679414825</v>
+        <v>0.00081703748757742185</v>
       </c>
       <c r="F220">
-        <v>0.022602512791776205</v>
+        <v>0.069562163403776536</v>
       </c>
       <c r="G220">
         <v>3</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>220</v>
+      <c r="A221" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B221">
-        <v>0.0027675221533189085</v>
+        <v>0.0028358098393623356</v>
       </c>
       <c r="C221">
-        <v>0.00036879384360005561</v>
+        <v>0.00011912117124987816</v>
       </c>
       <c r="D221">
-        <v>0.94991837655069455</v>
+        <v>0.92666586809803386</v>
       </c>
       <c r="E221">
-        <v>0.0034501602388208375</v>
+        <v>0.00081703748757742185</v>
       </c>
       <c r="F221">
-        <v>0.04349514721356551</v>
+        <v>0.069562163403776536</v>
       </c>
       <c r="G221">
         <v>3</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>221</v>
+      <c r="A222" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B222">
+        <v>0.0012310220720741047</v>
+      </c>
+      <c r="C222">
+        <v>0.00015284729898408614</v>
+      </c>
+      <c r="D222">
+        <v>0.96125656592362674</v>
+      </c>
+      <c r="E222">
+        <v>0.0014674293767347429</v>
+      </c>
+      <c r="F222">
+        <v>0.035892135328580307</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223">
+        <v>0.012023607715322647</v>
+      </c>
+      <c r="C223">
+        <v>0.055618320400848839</v>
+      </c>
+      <c r="D223">
+        <v>0.90967485816117155</v>
+      </c>
+      <c r="E223">
+        <v>0.0051672974920304662</v>
+      </c>
+      <c r="F223">
+        <v>0.017515916230626528</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224">
+        <v>0.003094478830518119</v>
+      </c>
+      <c r="C224">
+        <v>0.00016281793564011901</v>
+      </c>
+      <c r="D224">
+        <v>0.97177583519493693</v>
+      </c>
+      <c r="E224">
+        <v>0.001551129596260353</v>
+      </c>
+      <c r="F224">
+        <v>0.023415738442644628</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225">
+        <v>0.0016434550016100899</v>
+      </c>
+      <c r="C225">
+        <v>0.001067266704597116</v>
+      </c>
+      <c r="D225">
+        <v>0.951829657597979</v>
+      </c>
+      <c r="E225">
+        <v>0.004459857295544936</v>
+      </c>
+      <c r="F225">
+        <v>0.040999763400268931</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226">
         <v>0.00067925767708449075</v>
       </c>
-      <c r="C222">
+      <c r="C226">
         <v>1.3069063605214736e-05</v>
       </c>
-      <c r="D222">
+      <c r="D226">
         <v>0.97009012284996854</v>
       </c>
-      <c r="E222">
+      <c r="E226">
         <v>0.0011173385852781372</v>
       </c>
-      <c r="F222">
+      <c r="F226">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223">
-        <v>0.0030632310699880536</v>
-      </c>
-      <c r="C223">
-        <v>0.0080299828958727767</v>
-      </c>
-      <c r="D223">
-        <v>0.82554282656682376</v>
-      </c>
-      <c r="E223">
-        <v>0.0029515202049333628</v>
-      </c>
-      <c r="F223">
-        <v>0.16041243926238205</v>
-      </c>
-      <c r="G223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224">
-        <v>0.0012310220720741047</v>
-      </c>
-      <c r="C224">
-        <v>0.00015284729898408614</v>
-      </c>
-      <c r="D224">
-        <v>0.96125656592362674</v>
-      </c>
-      <c r="E224">
-        <v>0.0014674293767347429</v>
-      </c>
-      <c r="F224">
-        <v>0.035892135328580307</v>
-      </c>
-      <c r="G224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225">
-        <v>0.0028358098393623356</v>
-      </c>
-      <c r="C225">
-        <v>0.00011912117124987816</v>
-      </c>
-      <c r="D225">
-        <v>0.92666586809803386</v>
-      </c>
-      <c r="E225">
-        <v>0.00081703748757742185</v>
-      </c>
-      <c r="F225">
-        <v>0.069562163403776536</v>
-      </c>
-      <c r="G225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B226">
-        <v>0.0014180882227568846</v>
-      </c>
-      <c r="C226">
-        <v>8.9321143528374184e-05</v>
-      </c>
-      <c r="D226">
-        <v>0.98020819001063397</v>
-      </c>
-      <c r="E226">
-        <v>0.0025932300870845316</v>
-      </c>
-      <c r="F226">
-        <v>0.015691170535996109</v>
-      </c>
       <c r="G226">
         <v>3</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>226</v>
+      <c r="A227" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B227">
-        <v>0.0028358098393623356</v>
+        <v>0.0077073558815262825</v>
       </c>
       <c r="C227">
-        <v>0.00011912117124987816</v>
+        <v>0.054431161888750641</v>
       </c>
       <c r="D227">
-        <v>0.92666586809803386</v>
+        <v>0.91669524948402592</v>
       </c>
       <c r="E227">
-        <v>0.00081703748757742185</v>
+        <v>0.0011568151155568745</v>
       </c>
       <c r="F227">
-        <v>0.069562163403776536</v>
+        <v>0.020009417630140292</v>
       </c>
       <c r="G227">
         <v>3</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>227</v>
+      <c r="A228" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B228">
-        <v>0.0028358098393623356</v>
+        <v>0.0014775960936917049</v>
       </c>
       <c r="C228">
-        <v>0.00011912117124987816</v>
+        <v>4.6153310087849526e-05</v>
       </c>
       <c r="D228">
-        <v>0.92666586809803386</v>
+        <v>0.94044209651667565</v>
       </c>
       <c r="E228">
-        <v>0.00081703748757742185</v>
+        <v>0.0011421617773309262</v>
       </c>
       <c r="F228">
-        <v>0.069562163403776536</v>
+        <v>0.056891992302213819</v>
       </c>
       <c r="G228">
         <v>3</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>228</v>
+      <c r="A229" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B229">
         <v>0.0012310220720741047</v>
@@ -6253,123 +6257,123 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
-        <v>229</v>
+      <c r="A230" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B230">
-        <v>0.012023607715322647</v>
+        <v>0.0012310220720741047</v>
       </c>
       <c r="C230">
-        <v>0.055618320400848839</v>
+        <v>0.00015284729898408614</v>
       </c>
       <c r="D230">
-        <v>0.90967485816117155</v>
+        <v>0.96125656592362674</v>
       </c>
       <c r="E230">
-        <v>0.0051672974920304662</v>
+        <v>0.0014674293767347429</v>
       </c>
       <c r="F230">
-        <v>0.017515916230626528</v>
+        <v>0.035892135328580307</v>
       </c>
       <c r="G230">
         <v>3</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
-        <v>230</v>
+      <c r="A231" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B231">
-        <v>0.003094478830518119</v>
+        <v>0.00059869500329424411</v>
       </c>
       <c r="C231">
-        <v>0.00016281793564011901</v>
+        <v>2.59134197283382e-05</v>
       </c>
       <c r="D231">
-        <v>0.97177583519493693</v>
+        <v>0.96201119112328926</v>
       </c>
       <c r="E231">
-        <v>0.001551129596260353</v>
+        <v>0.00077030049451401667</v>
       </c>
       <c r="F231">
-        <v>0.023415738442644628</v>
+        <v>0.036593899959174142</v>
       </c>
       <c r="G231">
         <v>3</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
-        <v>231</v>
+      <c r="A232" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="B232">
-        <v>0.0016434550016100899</v>
+        <v>0.0014253430815271094</v>
       </c>
       <c r="C232">
-        <v>0.001067266704597116</v>
+        <v>9.0242983664094685e-05</v>
       </c>
       <c r="D232">
-        <v>0.951829657597979</v>
+        <v>0.97999444372178768</v>
       </c>
       <c r="E232">
-        <v>0.004459857295544936</v>
+        <v>0.0026684385088429244</v>
       </c>
       <c r="F232">
-        <v>0.040999763400268931</v>
+        <v>0.015821531704178226</v>
       </c>
       <c r="G232">
         <v>3</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>232</v>
+      <c r="A233" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="B233">
-        <v>0.00067925767708449075</v>
+        <v>0.0037895228440216148</v>
       </c>
       <c r="C233">
-        <v>1.3069063605214736e-05</v>
+        <v>0.00020308608745791851</v>
       </c>
       <c r="D233">
-        <v>0.97009012284996854</v>
+        <v>0.95933114034156419</v>
       </c>
       <c r="E233">
-        <v>0.0011173385852781372</v>
+        <v>0.0054886760744675385</v>
       </c>
       <c r="F233">
-        <v>0.02810021182406354</v>
+        <v>0.031187574652488764</v>
       </c>
       <c r="G233">
         <v>3</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
-        <v>233</v>
+      <c r="A234" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B234">
-        <v>0.0077073558815262825</v>
+        <v>0.0014775960936917049</v>
       </c>
       <c r="C234">
-        <v>0.054431161888750641</v>
+        <v>4.6153310087849526e-05</v>
       </c>
       <c r="D234">
-        <v>0.91669524948402592</v>
+        <v>0.94044209651667565</v>
       </c>
       <c r="E234">
-        <v>0.0011568151155568745</v>
+        <v>0.0011421617773309262</v>
       </c>
       <c r="F234">
-        <v>0.020009417630140292</v>
+        <v>0.056891992302213819</v>
       </c>
       <c r="G234">
         <v>3</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>234</v>
+      <c r="A235" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="B235">
         <v>0.0014775960936917049</v>
@@ -6391,1245 +6395,1245 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
-        <v>235</v>
+      <c r="A236" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="B236">
-        <v>0.0012310220720741047</v>
+        <v>0.00078617587535348941</v>
       </c>
       <c r="C236">
-        <v>0.00015284729898408614</v>
+        <v>0.00019121779050795907</v>
       </c>
       <c r="D236">
-        <v>0.96125656592362674</v>
+        <v>0.97964125020802861</v>
       </c>
       <c r="E236">
-        <v>0.0014674293767347429</v>
+        <v>0.00074546071386071011</v>
       </c>
       <c r="F236">
-        <v>0.035892135328580307</v>
+        <v>0.018635895412249245</v>
       </c>
       <c r="G236">
         <v>3</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
-        <v>236</v>
+      <c r="A237" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B237">
-        <v>0.0012310220720741047</v>
+        <v>0.00091571922940422257</v>
       </c>
       <c r="C237">
-        <v>0.00015284729898408614</v>
+        <v>1.4014003117353248e-05</v>
       </c>
       <c r="D237">
-        <v>0.96125656592362674</v>
+        <v>0.97526042440776073</v>
       </c>
       <c r="E237">
-        <v>0.0014674293767347429</v>
+        <v>0.0012073295679414825</v>
       </c>
       <c r="F237">
-        <v>0.035892135328580307</v>
+        <v>0.022602512791776205</v>
       </c>
       <c r="G237">
         <v>3</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
-        <v>237</v>
+      <c r="A238" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="B238">
-        <v>0.00059869500329424411</v>
+        <v>0.0014775960936917049</v>
       </c>
       <c r="C238">
-        <v>2.59134197283382e-05</v>
+        <v>4.6153310087849526e-05</v>
       </c>
       <c r="D238">
-        <v>0.96201119112328926</v>
+        <v>0.94044209651667565</v>
       </c>
       <c r="E238">
-        <v>0.00077030049451401667</v>
+        <v>0.0011421617773309262</v>
       </c>
       <c r="F238">
-        <v>0.036593899959174142</v>
+        <v>0.056891992302213819</v>
       </c>
       <c r="G238">
         <v>3</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
-        <v>238</v>
+      <c r="A239" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="B239">
-        <v>0.0014253430815271094</v>
+        <v>0.00067925767708449075</v>
       </c>
       <c r="C239">
-        <v>9.0242983664094685e-05</v>
+        <v>1.3069063605214736e-05</v>
       </c>
       <c r="D239">
-        <v>0.97999444372178768</v>
+        <v>0.97009012284996854</v>
       </c>
       <c r="E239">
-        <v>0.0026684385088429244</v>
+        <v>0.0011173385852781372</v>
       </c>
       <c r="F239">
-        <v>0.015821531704178226</v>
+        <v>0.02810021182406354</v>
       </c>
       <c r="G239">
         <v>3</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
-        <v>239</v>
+      <c r="A240" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="B240">
-        <v>0.0037895228440216148</v>
+        <v>0.0014775960936917049</v>
       </c>
       <c r="C240">
-        <v>0.00020308608745791851</v>
+        <v>4.6153310087849526e-05</v>
       </c>
       <c r="D240">
-        <v>0.95933114034156419</v>
+        <v>0.94044209651667565</v>
       </c>
       <c r="E240">
-        <v>0.0054886760744675385</v>
+        <v>0.0011421617773309262</v>
       </c>
       <c r="F240">
-        <v>0.031187574652488764</v>
+        <v>0.056891992302213819</v>
       </c>
       <c r="G240">
         <v>3</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
-        <v>240</v>
+      <c r="A241" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="B241">
-        <v>0.0014775960936917049</v>
+        <v>0.3405396871716766</v>
       </c>
       <c r="C241">
-        <v>4.6153310087849526e-05</v>
+        <v>0.28273863374830699</v>
       </c>
       <c r="D241">
-        <v>0.94044209651667565</v>
+        <v>0.10654544645659668</v>
       </c>
       <c r="E241">
-        <v>0.0011421617773309262</v>
+        <v>0.025570887739821021</v>
       </c>
       <c r="F241">
-        <v>0.056891992302213819</v>
+        <v>0.24460534488359867</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
-        <v>241</v>
+      <c r="A242" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B242">
-        <v>0.0014775960936917049</v>
+        <v>0.35576760235666216</v>
       </c>
       <c r="C242">
-        <v>4.6153310087849526e-05</v>
+        <v>0.26102337606606024</v>
       </c>
       <c r="D242">
-        <v>0.94044209651667565</v>
+        <v>0.14724890140352834</v>
       </c>
       <c r="E242">
-        <v>0.0011421617773309262</v>
+        <v>0.051444024529558041</v>
       </c>
       <c r="F242">
-        <v>0.056891992302213819</v>
+        <v>0.1845160956441915</v>
       </c>
       <c r="G242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
-        <v>242</v>
+      <c r="A243" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="B243">
-        <v>0.00078617587535348941</v>
+        <v>0.25446356062086706</v>
       </c>
       <c r="C243">
-        <v>0.00019121779050795907</v>
+        <v>0.033501120572152605</v>
       </c>
       <c r="D243">
-        <v>0.97964125020802861</v>
+        <v>0.3226901447305785</v>
       </c>
       <c r="E243">
-        <v>0.00074546071386071011</v>
+        <v>0.17285383741768154</v>
       </c>
       <c r="F243">
-        <v>0.018635895412249245</v>
+        <v>0.21649133665872033</v>
       </c>
       <c r="G243">
         <v>3</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
-        <v>243</v>
+      <c r="A244" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B244">
-        <v>0.00091571922940422257</v>
+        <v>0.34549836527244299</v>
       </c>
       <c r="C244">
-        <v>1.4014003117353248e-05</v>
+        <v>0.29049941154369169</v>
       </c>
       <c r="D244">
-        <v>0.97526042440776073</v>
+        <v>0.1984342447230259</v>
       </c>
       <c r="E244">
-        <v>0.0012073295679414825</v>
+        <v>0.033082887455647775</v>
       </c>
       <c r="F244">
-        <v>0.022602512791776205</v>
+        <v>0.13248509100519149</v>
       </c>
       <c r="G244">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
-        <v>244</v>
+      <c r="A245" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="B245">
-        <v>0.0014775960936917049</v>
+        <v>0.32480181217612741</v>
       </c>
       <c r="C245">
-        <v>4.6153310087849526e-05</v>
+        <v>0.1063398274444728</v>
       </c>
       <c r="D245">
-        <v>0.94044209651667565</v>
+        <v>0.29722082237068587</v>
       </c>
       <c r="E245">
-        <v>0.0011421617773309262</v>
+        <v>0.060937776752378818</v>
       </c>
       <c r="F245">
-        <v>0.056891992302213819</v>
+        <v>0.21069976125633511</v>
       </c>
       <c r="G245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
-        <v>245</v>
+      <c r="A246" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B246">
-        <v>0.00067925767708449075</v>
+        <v>0.34549836527244299</v>
       </c>
       <c r="C246">
-        <v>1.3069063605214736e-05</v>
+        <v>0.29049941154369169</v>
       </c>
       <c r="D246">
-        <v>0.97009012284996854</v>
+        <v>0.1984342447230259</v>
       </c>
       <c r="E246">
-        <v>0.0011173385852781372</v>
+        <v>0.033082887455647775</v>
       </c>
       <c r="F246">
-        <v>0.02810021182406354</v>
+        <v>0.13248509100519149</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
-        <v>246</v>
+      <c r="A247" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B247">
-        <v>0.0014775960936917049</v>
+        <v>0.32745414170092957</v>
       </c>
       <c r="C247">
-        <v>4.6153310087849526e-05</v>
+        <v>0.091871807694242719</v>
       </c>
       <c r="D247">
-        <v>0.94044209651667565</v>
+        <v>0.23872463301143357</v>
       </c>
       <c r="E247">
-        <v>0.0011421617773309262</v>
+        <v>0.15277950895008172</v>
       </c>
       <c r="F247">
-        <v>0.056891992302213819</v>
+        <v>0.18916990864331226</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
+      <c r="A248" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B248">
-        <v>0.3405396871716766</v>
+        <v>0.34628570888430144</v>
       </c>
       <c r="C248">
-        <v>0.28273863374830699</v>
+        <v>0.29998497701829241</v>
       </c>
       <c r="D248">
-        <v>0.10654544645659668</v>
+        <v>0.1000895100732207</v>
       </c>
       <c r="E248">
-        <v>0.025570887739821021</v>
+        <v>0.062336833979377136</v>
       </c>
       <c r="F248">
-        <v>0.24460534488359867</v>
+        <v>0.1913029700448082</v>
       </c>
       <c r="G248">
         <v>1</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>248</v>
+      <c r="A249" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="B249">
-        <v>0.35576760235666216</v>
+        <v>0.28051520629796278</v>
       </c>
       <c r="C249">
-        <v>0.26102337606606024</v>
+        <v>0.51042586209854679</v>
       </c>
       <c r="D249">
-        <v>0.14724890140352834</v>
+        <v>0.059345998130384138</v>
       </c>
       <c r="E249">
-        <v>0.051444024529558041</v>
+        <v>0.052803247408786114</v>
       </c>
       <c r="F249">
-        <v>0.1845160956441915</v>
+        <v>0.096909686064320169</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
-        <v>249</v>
+      <c r="A250" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B250">
-        <v>0.25446356062086706</v>
+        <v>0.35386611506000526</v>
       </c>
       <c r="C250">
-        <v>0.033501120572152605</v>
+        <v>0.19635703585359876</v>
       </c>
       <c r="D250">
-        <v>0.3226901447305785</v>
+        <v>0.21206699837253143</v>
       </c>
       <c r="E250">
-        <v>0.17285383741768154</v>
+        <v>0.060591283401452242</v>
       </c>
       <c r="F250">
-        <v>0.21649133665872033</v>
+        <v>0.1771185673124123</v>
       </c>
       <c r="G250">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
-        <v>250</v>
+      <c r="A251" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="B251">
-        <v>0.34549836527244299</v>
+        <v>0.32707574493988889</v>
       </c>
       <c r="C251">
-        <v>0.29049941154369169</v>
+        <v>0.089940015066992965</v>
       </c>
       <c r="D251">
-        <v>0.1984342447230259</v>
+        <v>0.23125419377443054</v>
       </c>
       <c r="E251">
-        <v>0.033082887455647775</v>
+        <v>0.16276497143152288</v>
       </c>
       <c r="F251">
-        <v>0.13248509100519149</v>
+        <v>0.18896507478716482</v>
       </c>
       <c r="G251">
         <v>1</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
-        <v>251</v>
+      <c r="A252" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="B252">
-        <v>0.32480181217612741</v>
+        <v>0.32808238579439336</v>
       </c>
       <c r="C252">
-        <v>0.1063398274444728</v>
+        <v>0.25876797550211494</v>
       </c>
       <c r="D252">
-        <v>0.29722082237068587</v>
+        <v>0.18696187165737396</v>
       </c>
       <c r="E252">
-        <v>0.060937776752378818</v>
+        <v>0.051879232674141858</v>
       </c>
       <c r="F252">
-        <v>0.21069976125633511</v>
+        <v>0.17430853437197577</v>
       </c>
       <c r="G252">
         <v>1</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
-        <v>252</v>
+      <c r="A253" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B253">
-        <v>0.34549836527244299</v>
+        <v>0.36270848732439409</v>
       </c>
       <c r="C253">
-        <v>0.29049941154369169</v>
+        <v>0.14809966704268587</v>
       </c>
       <c r="D253">
-        <v>0.1984342447230259</v>
+        <v>0.18374361265254591</v>
       </c>
       <c r="E253">
-        <v>0.033082887455647775</v>
+        <v>0.08074451177623504</v>
       </c>
       <c r="F253">
-        <v>0.13248509100519149</v>
+        <v>0.22470372120413909</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
-        <v>253</v>
+      <c r="A254" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B254">
-        <v>0.32745414170092957</v>
+        <v>0.29956675310055381</v>
       </c>
       <c r="C254">
-        <v>0.091871807694242719</v>
+        <v>0.4075214837309008</v>
       </c>
       <c r="D254">
-        <v>0.23872463301143357</v>
+        <v>0.10724099545185017</v>
       </c>
       <c r="E254">
-        <v>0.15277950895008172</v>
+        <v>0.038996767269001704</v>
       </c>
       <c r="F254">
-        <v>0.18916990864331226</v>
+        <v>0.14667400044769341</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
-        <v>254</v>
+      <c r="A255" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B255">
-        <v>0.34628570888430144</v>
+        <v>0.36270848732439409</v>
       </c>
       <c r="C255">
-        <v>0.29998497701829241</v>
+        <v>0.14809966704268587</v>
       </c>
       <c r="D255">
-        <v>0.1000895100732207</v>
+        <v>0.18374361265254591</v>
       </c>
       <c r="E255">
-        <v>0.062336833979377136</v>
+        <v>0.08074451177623504</v>
       </c>
       <c r="F255">
-        <v>0.1913029700448082</v>
+        <v>0.22470372120413909</v>
       </c>
       <c r="G255">
         <v>1</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
-        <v>255</v>
+      <c r="A256" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="B256">
-        <v>0.28051520629796278</v>
+        <v>0.36283330720730445</v>
       </c>
       <c r="C256">
-        <v>0.51042586209854679</v>
+        <v>0.14861530478455393</v>
       </c>
       <c r="D256">
-        <v>0.059345998130384138</v>
+        <v>0.18315193137964048</v>
       </c>
       <c r="E256">
-        <v>0.052803247408786114</v>
+        <v>0.080834720476959734</v>
       </c>
       <c r="F256">
-        <v>0.096909686064320169</v>
+        <v>0.22456473615154141</v>
       </c>
       <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257">
+        <v>0.33606877684723735</v>
+      </c>
+      <c r="C257">
+        <v>0.17046874155501229</v>
+      </c>
+      <c r="D257">
+        <v>0.13742338223684977</v>
+      </c>
+      <c r="E257">
+        <v>0.090698050472866193</v>
+      </c>
+      <c r="F257">
+        <v>0.26534104888803428</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B258">
+        <v>0.34006599391719206</v>
+      </c>
+      <c r="C258">
+        <v>0.29775500270702748</v>
+      </c>
+      <c r="D258">
+        <v>0.1677443234918623</v>
+      </c>
+      <c r="E258">
+        <v>0.018253217528920455</v>
+      </c>
+      <c r="F258">
+        <v>0.17618146235499768</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259">
+        <v>0.33676678417190103</v>
+      </c>
+      <c r="C259">
+        <v>0.18466785805865216</v>
+      </c>
+      <c r="D259">
+        <v>0.14086695376265923</v>
+      </c>
+      <c r="E259">
+        <v>0.080343664624702382</v>
+      </c>
+      <c r="F259">
+        <v>0.25735473938208525</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B260">
+        <v>0.33560206706486201</v>
+      </c>
+      <c r="C260">
+        <v>0.28363574102700234</v>
+      </c>
+      <c r="D260">
+        <v>0.1681565458983281</v>
+      </c>
+      <c r="E260">
+        <v>0.025093063236169937</v>
+      </c>
+      <c r="F260">
+        <v>0.18751258277363766</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B261">
+        <v>0.35990659858052393</v>
+      </c>
+      <c r="C261">
+        <v>0.21204947092924537</v>
+      </c>
+      <c r="D261">
+        <v>0.20658402790378058</v>
+      </c>
+      <c r="E261">
+        <v>0.050528652701840961</v>
+      </c>
+      <c r="F261">
+        <v>0.17093124988460925</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B262">
+        <v>0.34192440001409896</v>
+      </c>
+      <c r="C262">
+        <v>0.31029378720388501</v>
+      </c>
+      <c r="D262">
+        <v>0.13147213041995995</v>
+      </c>
+      <c r="E262">
+        <v>0.064039576417965982</v>
+      </c>
+      <c r="F262">
+        <v>0.15227010594409007</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B263">
+        <v>0.32818504615130317</v>
+      </c>
+      <c r="C263">
+        <v>0.23361054667836587</v>
+      </c>
+      <c r="D263">
+        <v>0.13658160523708776</v>
+      </c>
+      <c r="E263">
+        <v>0.071593621957306022</v>
+      </c>
+      <c r="F263">
+        <v>0.23002917997593708</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264">
+        <v>0.32845950704183596</v>
+      </c>
+      <c r="C264">
+        <v>0.10072024956489148</v>
+      </c>
+      <c r="D264">
+        <v>0.29582006951656042</v>
+      </c>
+      <c r="E264">
+        <v>0.093083951702925105</v>
+      </c>
+      <c r="F264">
+        <v>0.18191622217378706</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B265">
+        <v>0.33690618313269632</v>
+      </c>
+      <c r="C265">
+        <v>0.21955953775096604</v>
+      </c>
+      <c r="D265">
+        <v>0.21596494973717345</v>
+      </c>
+      <c r="E265">
+        <v>0.019918431878805341</v>
+      </c>
+      <c r="F265">
+        <v>0.20765089750035887</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266">
+        <v>0.29616488290945386</v>
+      </c>
+      <c r="C266">
+        <v>0.036112435275102828</v>
+      </c>
+      <c r="D266">
+        <v>0.32205874112392402</v>
+      </c>
+      <c r="E266">
+        <v>0.15722400076165766</v>
+      </c>
+      <c r="F266">
+        <v>0.18843993992986155</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B267">
+        <v>0.3143654173089766</v>
+      </c>
+      <c r="C267">
+        <v>0.10592088891769019</v>
+      </c>
+      <c r="D267">
+        <v>0.33078057030234681</v>
+      </c>
+      <c r="E267">
+        <v>0.080668944466217668</v>
+      </c>
+      <c r="F267">
+        <v>0.16826417900476873</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268">
+        <v>0.30074903863945229</v>
+      </c>
+      <c r="C268">
+        <v>0.28205598203172694</v>
+      </c>
+      <c r="D268">
+        <v>0.2504642770956883</v>
+      </c>
+      <c r="E268">
+        <v>0.067375655080694458</v>
+      </c>
+      <c r="F268">
+        <v>0.099355047152438217</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B269">
+        <v>0.32431671062837664</v>
+      </c>
+      <c r="C269">
+        <v>0.17512909884151995</v>
+      </c>
+      <c r="D269">
+        <v>0.17991389240034841</v>
+      </c>
+      <c r="E269">
+        <v>0.15302261523515143</v>
+      </c>
+      <c r="F269">
+        <v>0.16761768289460352</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270">
+        <v>0.32431671062837664</v>
+      </c>
+      <c r="C270">
+        <v>0.17512909884151995</v>
+      </c>
+      <c r="D270">
+        <v>0.17991389240034841</v>
+      </c>
+      <c r="E270">
+        <v>0.15302261523515143</v>
+      </c>
+      <c r="F270">
+        <v>0.16761768289460352</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B271">
+        <v>0.34073154460012683</v>
+      </c>
+      <c r="C271">
+        <v>0.2524014849635573</v>
+      </c>
+      <c r="D271">
+        <v>0.12304781307483066</v>
+      </c>
+      <c r="E271">
+        <v>0.035918438711545368</v>
+      </c>
+      <c r="F271">
+        <v>0.24790071864993982</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B272">
+        <v>0.34345566526760796</v>
+      </c>
+      <c r="C272">
+        <v>0.29466653201207421</v>
+      </c>
+      <c r="D272">
+        <v>0.12926955848054514</v>
+      </c>
+      <c r="E272">
+        <v>0.024727042882126134</v>
+      </c>
+      <c r="F272">
+        <v>0.20788120135764646</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273">
+        <v>0.26381042970410512</v>
+      </c>
+      <c r="C273">
+        <v>0.13869345621748702</v>
+      </c>
+      <c r="D273">
+        <v>0.28385119376362478</v>
+      </c>
+      <c r="E273">
+        <v>0.1017334139914078</v>
+      </c>
+      <c r="F273">
+        <v>0.21191150632337519</v>
+      </c>
+      <c r="G273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B274">
+        <v>0.29433522959699826</v>
+      </c>
+      <c r="C274">
+        <v>0.25415661169596293</v>
+      </c>
+      <c r="D274">
+        <v>0.22277939246045295</v>
+      </c>
+      <c r="E274">
+        <v>0.077941104307565554</v>
+      </c>
+      <c r="F274">
+        <v>0.15078766193902032</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275">
+        <v>0.33981170723309773</v>
+      </c>
+      <c r="C275">
+        <v>0.3185077648134475</v>
+      </c>
+      <c r="D275">
+        <v>0.11534053742000873</v>
+      </c>
+      <c r="E275">
+        <v>0.063684853702445962</v>
+      </c>
+      <c r="F275">
+        <v>0.16265513683100005</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276">
+        <v>0.33812428706112152</v>
+      </c>
+      <c r="C276">
+        <v>0.159056084556051</v>
+      </c>
+      <c r="D276">
+        <v>0.23375968279621798</v>
+      </c>
+      <c r="E276">
+        <v>0.055985160036468896</v>
+      </c>
+      <c r="F276">
+        <v>0.21307478555014056</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277">
+        <v>0.28554178958458248</v>
+      </c>
+      <c r="C277">
+        <v>0.24784112561863447</v>
+      </c>
+      <c r="D277">
+        <v>0.24068413985626042</v>
+      </c>
+      <c r="E277">
+        <v>0.056920684939669376</v>
+      </c>
+      <c r="F277">
+        <v>0.16901226000085329</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278">
+        <v>0.32825774134368091</v>
+      </c>
+      <c r="C278">
+        <v>0.17981258717128643</v>
+      </c>
+      <c r="D278">
+        <v>0.24559565784320575</v>
+      </c>
+      <c r="E278">
+        <v>0.098795748221024465</v>
+      </c>
+      <c r="F278">
+        <v>0.14753826542080239</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279">
+        <v>0.32447702116254312</v>
+      </c>
+      <c r="C279">
+        <v>0.31816390062239369</v>
+      </c>
+      <c r="D279">
+        <v>0.13156451965069188</v>
+      </c>
+      <c r="E279">
+        <v>0.091759526269025435</v>
+      </c>
+      <c r="F279">
+        <v>0.13403503229534589</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280">
+        <v>0.33211510108629583</v>
+      </c>
+      <c r="C280">
+        <v>0.20322516025580409</v>
+      </c>
+      <c r="D280">
+        <v>0.17323182123201525</v>
+      </c>
+      <c r="E280">
+        <v>0.044408614101247225</v>
+      </c>
+      <c r="F280">
+        <v>0.24701930332463773</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281">
+        <v>0.35170394138561883</v>
+      </c>
+      <c r="C281">
+        <v>0.33246984290179954</v>
+      </c>
+      <c r="D281">
+        <v>0.12800275140906259</v>
+      </c>
+      <c r="E281">
+        <v>0.038672800789779055</v>
+      </c>
+      <c r="F281">
+        <v>0.14915066351373996</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282">
+        <v>0.35862152068075553</v>
+      </c>
+      <c r="C282">
+        <v>0.23436570993418082</v>
+      </c>
+      <c r="D282">
+        <v>0.16449207029148913</v>
+      </c>
+      <c r="E282">
+        <v>0.033076918500622103</v>
+      </c>
+      <c r="F282">
+        <v>0.20944378059295238</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283">
+        <v>0.36828307514391612</v>
+      </c>
+      <c r="C283">
+        <v>0.093939805676431079</v>
+      </c>
+      <c r="D283">
+        <v>0.26883516592068796</v>
+      </c>
+      <c r="E283">
+        <v>0.055702100855355742</v>
+      </c>
+      <c r="F283">
+        <v>0.21323985240360918</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284">
+        <v>0.29025536616795866</v>
+      </c>
+      <c r="C284">
+        <v>0.11962192861486423</v>
+      </c>
+      <c r="D284">
+        <v>0.29909319793569195</v>
+      </c>
+      <c r="E284">
+        <v>0.061876846960488188</v>
+      </c>
+      <c r="F284">
+        <v>0.22915266032099699</v>
+      </c>
+      <c r="G284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285">
+        <v>0.31695635748019124</v>
+      </c>
+      <c r="C285">
+        <v>0.22382103602424738</v>
+      </c>
+      <c r="D285">
+        <v>0.20142082830390981</v>
+      </c>
+      <c r="E285">
+        <v>0.1533721945470799</v>
+      </c>
+      <c r="F285">
+        <v>0.10442958364457178</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286">
+        <v>0.36479466735151445</v>
+      </c>
+      <c r="C286">
+        <v>0.19082481271370247</v>
+      </c>
+      <c r="D286">
+        <v>0.19182424574471854</v>
+      </c>
+      <c r="E286">
+        <v>0.033459799485392891</v>
+      </c>
+      <c r="F286">
+        <v>0.21909647470467164</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287">
+        <v>0.35704896034205258</v>
+      </c>
+      <c r="C287">
+        <v>0.16033628859787313</v>
+      </c>
+      <c r="D287">
+        <v>0.23573736773310969</v>
+      </c>
+      <c r="E287">
+        <v>0.034859959400514048</v>
+      </c>
+      <c r="F287">
+        <v>0.21201742392645054</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B288">
+        <v>0.24426397233275943</v>
+      </c>
+      <c r="C288">
+        <v>0.37123745463468139</v>
+      </c>
+      <c r="D288">
+        <v>0.30220352182055188</v>
+      </c>
+      <c r="E288">
+        <v>0.019884356213761938</v>
+      </c>
+      <c r="F288">
+        <v>0.06241069499824551</v>
+      </c>
+      <c r="G288">
         <v>2</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B257">
-        <v>0.35386611506000526</v>
-      </c>
-      <c r="C257">
-        <v>0.19635703585359876</v>
-      </c>
-      <c r="D257">
-        <v>0.21206699837253143</v>
-      </c>
-      <c r="E257">
-        <v>0.060591283401452242</v>
-      </c>
-      <c r="F257">
-        <v>0.1771185673124123</v>
-      </c>
-      <c r="G257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B258">
-        <v>0.32707574493988889</v>
-      </c>
-      <c r="C258">
-        <v>0.089940015066992965</v>
-      </c>
-      <c r="D258">
-        <v>0.23125419377443054</v>
-      </c>
-      <c r="E258">
-        <v>0.16276497143152288</v>
-      </c>
-      <c r="F258">
-        <v>0.18896507478716482</v>
-      </c>
-      <c r="G258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259">
-        <v>0.32808238579439336</v>
-      </c>
-      <c r="C259">
-        <v>0.25876797550211494</v>
-      </c>
-      <c r="D259">
-        <v>0.18696187165737396</v>
-      </c>
-      <c r="E259">
-        <v>0.051879232674141858</v>
-      </c>
-      <c r="F259">
-        <v>0.17430853437197577</v>
-      </c>
-      <c r="G259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B260">
-        <v>0.36270848732439409</v>
-      </c>
-      <c r="C260">
-        <v>0.14809966704268587</v>
-      </c>
-      <c r="D260">
-        <v>0.18374361265254591</v>
-      </c>
-      <c r="E260">
-        <v>0.08074451177623504</v>
-      </c>
-      <c r="F260">
-        <v>0.22470372120413909</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261">
-        <v>0.29956675310055381</v>
-      </c>
-      <c r="C261">
-        <v>0.4075214837309008</v>
-      </c>
-      <c r="D261">
-        <v>0.10724099545185017</v>
-      </c>
-      <c r="E261">
-        <v>0.038996767269001704</v>
-      </c>
-      <c r="F261">
-        <v>0.14667400044769341</v>
-      </c>
-      <c r="G261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B262">
-        <v>0.36270848732439409</v>
-      </c>
-      <c r="C262">
-        <v>0.14809966704268587</v>
-      </c>
-      <c r="D262">
-        <v>0.18374361265254591</v>
-      </c>
-      <c r="E262">
-        <v>0.08074451177623504</v>
-      </c>
-      <c r="F262">
-        <v>0.22470372120413909</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B263">
-        <v>0.36283330720730445</v>
-      </c>
-      <c r="C263">
-        <v>0.14861530478455393</v>
-      </c>
-      <c r="D263">
-        <v>0.18315193137964048</v>
-      </c>
-      <c r="E263">
-        <v>0.080834720476959734</v>
-      </c>
-      <c r="F263">
-        <v>0.22456473615154141</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B264">
-        <v>0.33606877684723735</v>
-      </c>
-      <c r="C264">
-        <v>0.17046874155501229</v>
-      </c>
-      <c r="D264">
-        <v>0.13742338223684977</v>
-      </c>
-      <c r="E264">
-        <v>0.090698050472866193</v>
-      </c>
-      <c r="F264">
-        <v>0.26534104888803428</v>
-      </c>
-      <c r="G264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B265">
-        <v>0.34006599391719206</v>
-      </c>
-      <c r="C265">
-        <v>0.29775500270702748</v>
-      </c>
-      <c r="D265">
-        <v>0.1677443234918623</v>
-      </c>
-      <c r="E265">
-        <v>0.018253217528920455</v>
-      </c>
-      <c r="F265">
-        <v>0.17618146235499768</v>
-      </c>
-      <c r="G265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B266">
-        <v>0.33676678417190103</v>
-      </c>
-      <c r="C266">
-        <v>0.18466785805865216</v>
-      </c>
-      <c r="D266">
-        <v>0.14086695376265923</v>
-      </c>
-      <c r="E266">
-        <v>0.080343664624702382</v>
-      </c>
-      <c r="F266">
-        <v>0.25735473938208525</v>
-      </c>
-      <c r="G266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267">
-        <v>0.33560206706486201</v>
-      </c>
-      <c r="C267">
-        <v>0.28363574102700234</v>
-      </c>
-      <c r="D267">
-        <v>0.1681565458983281</v>
-      </c>
-      <c r="E267">
-        <v>0.025093063236169937</v>
-      </c>
-      <c r="F267">
-        <v>0.18751258277363766</v>
-      </c>
-      <c r="G267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B268">
-        <v>0.35990659858052393</v>
-      </c>
-      <c r="C268">
-        <v>0.21204947092924537</v>
-      </c>
-      <c r="D268">
-        <v>0.20658402790378058</v>
-      </c>
-      <c r="E268">
-        <v>0.050528652701840961</v>
-      </c>
-      <c r="F268">
-        <v>0.17093124988460925</v>
-      </c>
-      <c r="G268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269">
-        <v>0.34192440001409896</v>
-      </c>
-      <c r="C269">
-        <v>0.31029378720388501</v>
-      </c>
-      <c r="D269">
-        <v>0.13147213041995995</v>
-      </c>
-      <c r="E269">
-        <v>0.064039576417965982</v>
-      </c>
-      <c r="F269">
-        <v>0.15227010594409007</v>
-      </c>
-      <c r="G269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270">
-        <v>0.32818504615130317</v>
-      </c>
-      <c r="C270">
-        <v>0.23361054667836587</v>
-      </c>
-      <c r="D270">
-        <v>0.13658160523708776</v>
-      </c>
-      <c r="E270">
-        <v>0.071593621957306022</v>
-      </c>
-      <c r="F270">
-        <v>0.23002917997593708</v>
-      </c>
-      <c r="G270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271">
-        <v>0.32845950704183596</v>
-      </c>
-      <c r="C271">
-        <v>0.10072024956489148</v>
-      </c>
-      <c r="D271">
-        <v>0.29582006951656042</v>
-      </c>
-      <c r="E271">
-        <v>0.093083951702925105</v>
-      </c>
-      <c r="F271">
-        <v>0.18191622217378706</v>
-      </c>
-      <c r="G271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B272">
-        <v>0.33690618313269632</v>
-      </c>
-      <c r="C272">
-        <v>0.21955953775096604</v>
-      </c>
-      <c r="D272">
-        <v>0.21596494973717345</v>
-      </c>
-      <c r="E272">
-        <v>0.019918431878805341</v>
-      </c>
-      <c r="F272">
-        <v>0.20765089750035887</v>
-      </c>
-      <c r="G272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273">
-        <v>0.29616488290945386</v>
-      </c>
-      <c r="C273">
-        <v>0.036112435275102828</v>
-      </c>
-      <c r="D273">
-        <v>0.32205874112392402</v>
-      </c>
-      <c r="E273">
-        <v>0.15722400076165766</v>
-      </c>
-      <c r="F273">
-        <v>0.18843993992986155</v>
-      </c>
-      <c r="G273">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274">
-        <v>0.3143654173089766</v>
-      </c>
-      <c r="C274">
-        <v>0.10592088891769019</v>
-      </c>
-      <c r="D274">
-        <v>0.33078057030234681</v>
-      </c>
-      <c r="E274">
-        <v>0.080668944466217668</v>
-      </c>
-      <c r="F274">
-        <v>0.16826417900476873</v>
-      </c>
-      <c r="G274">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B275">
-        <v>0.30074903863945229</v>
-      </c>
-      <c r="C275">
-        <v>0.28205598203172694</v>
-      </c>
-      <c r="D275">
-        <v>0.2504642770956883</v>
-      </c>
-      <c r="E275">
-        <v>0.067375655080694458</v>
-      </c>
-      <c r="F275">
-        <v>0.099355047152438217</v>
-      </c>
-      <c r="G275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276">
-        <v>0.32431671062837664</v>
-      </c>
-      <c r="C276">
-        <v>0.17512909884151995</v>
-      </c>
-      <c r="D276">
-        <v>0.17991389240034841</v>
-      </c>
-      <c r="E276">
-        <v>0.15302261523515143</v>
-      </c>
-      <c r="F276">
-        <v>0.16761768289460352</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277">
-        <v>0.32431671062837664</v>
-      </c>
-      <c r="C277">
-        <v>0.17512909884151995</v>
-      </c>
-      <c r="D277">
-        <v>0.17991389240034841</v>
-      </c>
-      <c r="E277">
-        <v>0.15302261523515143</v>
-      </c>
-      <c r="F277">
-        <v>0.16761768289460352</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B278">
-        <v>0.34073154460012683</v>
-      </c>
-      <c r="C278">
-        <v>0.2524014849635573</v>
-      </c>
-      <c r="D278">
-        <v>0.12304781307483066</v>
-      </c>
-      <c r="E278">
-        <v>0.035918438711545368</v>
-      </c>
-      <c r="F278">
-        <v>0.24790071864993982</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B279">
-        <v>0.34345566526760796</v>
-      </c>
-      <c r="C279">
-        <v>0.29466653201207421</v>
-      </c>
-      <c r="D279">
-        <v>0.12926955848054514</v>
-      </c>
-      <c r="E279">
-        <v>0.024727042882126134</v>
-      </c>
-      <c r="F279">
-        <v>0.20788120135764646</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280">
-        <v>0.26381042970410512</v>
-      </c>
-      <c r="C280">
-        <v>0.13869345621748702</v>
-      </c>
-      <c r="D280">
-        <v>0.28385119376362478</v>
-      </c>
-      <c r="E280">
-        <v>0.1017334139914078</v>
-      </c>
-      <c r="F280">
-        <v>0.21191150632337519</v>
-      </c>
-      <c r="G280">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281">
-        <v>0.29433522959699826</v>
-      </c>
-      <c r="C281">
-        <v>0.25415661169596293</v>
-      </c>
-      <c r="D281">
-        <v>0.22277939246045295</v>
-      </c>
-      <c r="E281">
-        <v>0.077941104307565554</v>
-      </c>
-      <c r="F281">
-        <v>0.15078766193902032</v>
-      </c>
-      <c r="G281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282">
-        <v>0.33981170723309773</v>
-      </c>
-      <c r="C282">
-        <v>0.3185077648134475</v>
-      </c>
-      <c r="D282">
-        <v>0.11534053742000873</v>
-      </c>
-      <c r="E282">
-        <v>0.063684853702445962</v>
-      </c>
-      <c r="F282">
-        <v>0.16265513683100005</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283">
-        <v>0.33812428706112152</v>
-      </c>
-      <c r="C283">
-        <v>0.159056084556051</v>
-      </c>
-      <c r="D283">
-        <v>0.23375968279621798</v>
-      </c>
-      <c r="E283">
-        <v>0.055985160036468896</v>
-      </c>
-      <c r="F283">
-        <v>0.21307478555014056</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284">
-        <v>0.28554178958458248</v>
-      </c>
-      <c r="C284">
-        <v>0.24784112561863447</v>
-      </c>
-      <c r="D284">
-        <v>0.24068413985626042</v>
-      </c>
-      <c r="E284">
-        <v>0.056920684939669376</v>
-      </c>
-      <c r="F284">
-        <v>0.16901226000085329</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B285">
-        <v>0.32825774134368091</v>
-      </c>
-      <c r="C285">
-        <v>0.17981258717128643</v>
-      </c>
-      <c r="D285">
-        <v>0.24559565784320575</v>
-      </c>
-      <c r="E285">
-        <v>0.098795748221024465</v>
-      </c>
-      <c r="F285">
-        <v>0.14753826542080239</v>
-      </c>
-      <c r="G285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286">
-        <v>0.32447702116254312</v>
-      </c>
-      <c r="C286">
-        <v>0.31816390062239369</v>
-      </c>
-      <c r="D286">
-        <v>0.13156451965069188</v>
-      </c>
-      <c r="E286">
-        <v>0.091759526269025435</v>
-      </c>
-      <c r="F286">
-        <v>0.13403503229534589</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287">
-        <v>0.33211510108629583</v>
-      </c>
-      <c r="C287">
-        <v>0.20322516025580409</v>
-      </c>
-      <c r="D287">
-        <v>0.17323182123201525</v>
-      </c>
-      <c r="E287">
-        <v>0.044408614101247225</v>
-      </c>
-      <c r="F287">
-        <v>0.24701930332463773</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B288">
-        <v>0.35170394138561883</v>
-      </c>
-      <c r="C288">
-        <v>0.33246984290179954</v>
-      </c>
-      <c r="D288">
-        <v>0.12800275140906259</v>
-      </c>
-      <c r="E288">
-        <v>0.038672800789779055</v>
-      </c>
-      <c r="F288">
-        <v>0.14915066351373996</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-    </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
-        <v>288</v>
+      <c r="A289" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B289">
-        <v>0.35862152068075553</v>
+        <v>0.27654598512990625</v>
       </c>
       <c r="C289">
-        <v>0.23436570993418082</v>
+        <v>0.24272107864907447</v>
       </c>
       <c r="D289">
-        <v>0.16449207029148913</v>
+        <v>0.15715174614608021</v>
       </c>
       <c r="E289">
-        <v>0.033076918500622103</v>
+        <v>0.024997058530313712</v>
       </c>
       <c r="F289">
-        <v>0.20944378059295238</v>
+        <v>0.29858413154462549</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
